--- a/notebooks/Women In Sciente/RespostaQuestionárioMulheresnaCiência.xlsx
+++ b/notebooks/Women In Sciente/RespostaQuestionárioMulheresnaCiência.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="314">
   <si>
     <t>Indicação de data e hora</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Qual o seu instituto?</t>
   </si>
   <si>
-    <t>Qual o seu ano de ingresso na universidade?</t>
+    <t>Qual o seu ano de ingresso (na graduação) na universidade?</t>
   </si>
   <si>
     <t>Quantas mulheres entraram no seu curso no seu ano de ingresso? Dê uma estimativa caso não lembre o número exato.</t>
@@ -929,6 +929,30 @@
   </si>
   <si>
     <t>Não, não posso dizer que não há qualquer distinção, mas eu não notei distinção (podem haver professores que façam notória distinção, ou coordenadores de curso, orientadores, etc, mas não sofri algum tipo de distinção pelo gênero), e acho que a dificuldade foi igual para ambos os gêneros.</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>historicamente/socialmente o curso de pedagogia é voltado às mulheres.</t>
+  </si>
+  <si>
+    <t>Estudar/compreender "gênero" antes de criar um formulário, onde a primeira pergunta é "qual o seu gênero?". Não me encaixei nas opções dadas e me senti discriminade.</t>
+  </si>
+  <si>
+    <t>pedagogia</t>
+  </si>
+  <si>
+    <t>física</t>
+  </si>
+  <si>
+    <t>Não Sei</t>
+  </si>
+  <si>
+    <t>Estatística</t>
+  </si>
+  <si>
+    <t>Doutorado em fisica aplicada</t>
   </si>
 </sst>
 </file>
@@ -965,14 +989,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1016,7 +1052,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1040,10 +1076,10 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1063,7 +1099,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>42241.8396028125</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1099,9 +1135,11 @@
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>42241.87383851851</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1137,9 +1175,11 @@
       <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>42241.88470429398</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1175,9 +1215,11 @@
       <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>42241.88629530092</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1213,9 +1255,11 @@
       <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>42241.891383344904</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1251,9 +1295,11 @@
       <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>42241.892266111114</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1289,9 +1335,11 @@
       <c r="L7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>42241.892742118056</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1327,9 +1375,11 @@
       <c r="L8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>42241.893198645834</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1365,9 +1415,11 @@
       <c r="L9" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>42241.89500072917</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1403,9 +1455,11 @@
       <c r="L10" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>42241.89546219907</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1441,9 +1495,11 @@
       <c r="L11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>42241.89608361111</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1479,9 +1535,11 @@
       <c r="L12" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>42241.896510798615</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1517,9 +1575,11 @@
       <c r="L13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>42241.89842168981</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1555,9 +1615,11 @@
       <c r="L14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>42241.898788148144</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1593,9 +1655,11 @@
       <c r="L15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>42241.89888142361</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1631,9 +1695,11 @@
       <c r="L16" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>42241.89888934028</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1669,9 +1735,11 @@
       <c r="L17" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>42241.90128</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1707,9 +1775,11 @@
       <c r="L18" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>42241.90239831019</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1745,9 +1815,11 @@
       <c r="L19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>42241.90252625</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1783,9 +1855,11 @@
       <c r="L20" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>42241.904111192125</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1821,9 +1895,11 @@
       <c r="L21" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>42241.905091354165</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1859,17 +1935,18 @@
       <c r="L22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="M22" s="2"/>
+      <c r="N22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>42241.90770273148</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1905,17 +1982,18 @@
       <c r="L23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="M23" s="2"/>
+      <c r="N23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>42241.90770589121</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1951,17 +2029,18 @@
       <c r="L24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="M24" s="2"/>
+      <c r="N24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>42241.90886806713</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1997,13 +2076,14 @@
       <c r="L25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="M25" s="2"/>
+      <c r="N25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>42241.90916459491</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2039,12 +2119,13 @@
       <c r="L26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="M26" s="2"/>
+      <c r="N26" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>42241.910630115744</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2080,12 +2161,13 @@
       <c r="L27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="M27" s="2"/>
+      <c r="N27" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>42241.91214542824</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2121,15 +2203,15 @@
       <c r="L28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>42241.912546782405</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2165,12 +2247,13 @@
       <c r="L29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="M29" s="2"/>
+      <c r="N29" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>42241.91579770834</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2206,12 +2289,13 @@
       <c r="L30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="M30" s="2"/>
+      <c r="N30" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>42241.91756818287</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2247,12 +2331,13 @@
       <c r="L31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="M31" s="2"/>
+      <c r="N31" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>42241.91766666667</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2288,12 +2373,13 @@
       <c r="L32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>42241.91808686343</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2329,15 +2415,15 @@
       <c r="L33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>42241.9182512963</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2373,15 +2459,15 @@
       <c r="L34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>42241.918521053245</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2417,12 +2503,13 @@
       <c r="L35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="M35" s="2"/>
+      <c r="N35" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>42241.91875547454</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2458,12 +2545,13 @@
       <c r="L36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="M36" s="2"/>
+      <c r="N36" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>42241.919970138886</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2499,12 +2587,13 @@
       <c r="L37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="M37" s="2"/>
+      <c r="N37" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>42241.92136559028</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2540,12 +2629,13 @@
       <c r="L38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="M38" s="2"/>
+      <c r="N38" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>42241.92232817129</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2581,12 +2671,13 @@
       <c r="L39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="M39" s="2"/>
+      <c r="N39" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>42241.922335787036</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2622,15 +2713,15 @@
       <c r="L40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>42241.92279810185</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2666,15 +2757,15 @@
       <c r="L41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>42241.92441677084</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2710,12 +2801,13 @@
       <c r="L42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="M42" s="2"/>
+      <c r="N42" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>42241.92456082176</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2751,12 +2843,13 @@
       <c r="L43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="M43" s="2"/>
+      <c r="N43" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>42241.92519908564</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2792,12 +2885,13 @@
       <c r="L44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="M44" s="2"/>
+      <c r="N44" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>42241.92565335648</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2833,12 +2927,13 @@
       <c r="L45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="M45" s="2"/>
+      <c r="N45" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>42241.92606571759</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2874,12 +2969,13 @@
       <c r="L46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="M46" s="2"/>
+      <c r="N46" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>42241.92617760417</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2915,12 +3011,13 @@
       <c r="L47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="M47" s="2"/>
+      <c r="N47" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>42241.9294440625</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2956,12 +3053,13 @@
       <c r="L48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="M48" s="2"/>
+      <c r="N48" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>42241.92951259259</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2997,12 +3095,13 @@
       <c r="L49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="M49" s="2"/>
+      <c r="N49" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>42241.93132914352</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3038,12 +3137,13 @@
       <c r="L50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="M50" s="2"/>
+      <c r="N50" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>42241.93230579861</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3079,12 +3179,13 @@
       <c r="L51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="M51" s="2"/>
+      <c r="N51" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="4">
         <v>42241.93289966435</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3120,12 +3221,13 @@
       <c r="L52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="M52" s="2"/>
+      <c r="N52" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>42241.93298966435</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3161,12 +3263,13 @@
       <c r="L53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="M53" s="2"/>
+      <c r="N53" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>42241.93540598379</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3202,12 +3305,13 @@
       <c r="L54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="M54" s="2"/>
+      <c r="N54" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>42241.93598009259</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3243,12 +3347,13 @@
       <c r="L55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="M55" s="2"/>
+      <c r="N55" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="4">
         <v>42241.93756131944</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3284,12 +3389,13 @@
       <c r="L56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="M56" s="2"/>
+      <c r="N56" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>42241.938616053245</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3325,12 +3431,13 @@
       <c r="L57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="M57" s="2"/>
+      <c r="N57" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>42241.94070909722</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3366,12 +3473,13 @@
       <c r="L58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="M58" s="2"/>
+      <c r="N58" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>42241.942248113424</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3407,12 +3515,13 @@
       <c r="L59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="M59" s="2"/>
+      <c r="N59" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>42241.943796886575</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3448,12 +3557,13 @@
       <c r="L60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="M60" s="2"/>
+      <c r="N60" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>42241.9446275463</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3489,12 +3599,13 @@
       <c r="L61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="M61" s="2"/>
+      <c r="N61" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>42241.94487622685</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3530,12 +3641,13 @@
       <c r="L62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="M62" s="2"/>
+      <c r="N62" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="4">
         <v>42241.94619594907</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3571,12 +3683,13 @@
       <c r="L63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="M63" s="2"/>
+      <c r="N63" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="4">
         <v>42241.94633815972</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3612,15 +3725,15 @@
       <c r="L64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="4">
         <v>42241.949367141206</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3656,12 +3769,13 @@
       <c r="L65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="M65" s="2"/>
+      <c r="N65" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="4">
         <v>42241.94994997686</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3697,12 +3811,13 @@
       <c r="L66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="M66" s="2"/>
+      <c r="N66" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="4">
         <v>42241.95206802084</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3738,12 +3853,13 @@
       <c r="L67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="M67" s="2"/>
+      <c r="N67" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="4">
         <v>42241.95282604167</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3776,12 +3892,13 @@
       <c r="K68" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="M68" s="2"/>
+      <c r="N68" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="4">
         <v>42241.9532896875</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -3817,12 +3934,13 @@
       <c r="L69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="M69" s="2"/>
+      <c r="N69" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="4">
         <v>42241.95359282407</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3858,12 +3976,13 @@
       <c r="L70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="M70" s="2"/>
+      <c r="N70" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="4">
         <v>42241.953676944446</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3899,12 +4018,13 @@
       <c r="L71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="M71" s="2"/>
+      <c r="N71" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2">
+      <c r="A72" s="4">
         <v>42241.95399523148</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3940,12 +4060,13 @@
       <c r="L72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="M72" s="2"/>
+      <c r="N72" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2">
+      <c r="A73" s="4">
         <v>42241.95516540509</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3981,12 +4102,13 @@
       <c r="L73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="M73" s="2"/>
+      <c r="N73" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2">
+      <c r="A74" s="4">
         <v>42241.95666200231</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4022,12 +4144,13 @@
       <c r="L74" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="M74" s="2"/>
+      <c r="N74" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2">
+      <c r="A75" s="4">
         <v>42241.95683292824</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4063,12 +4186,13 @@
       <c r="L75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="M75" s="2"/>
+      <c r="N75" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2">
+      <c r="A76" s="4">
         <v>42241.972237256945</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -4104,12 +4228,13 @@
       <c r="L76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="M76" s="2"/>
+      <c r="N76" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>42241.980925358796</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -4145,12 +4270,13 @@
       <c r="L77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="M77" s="2"/>
+      <c r="N77" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2">
+      <c r="A78" s="4">
         <v>42241.995087083335</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -4186,12 +4312,13 @@
       <c r="L78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="M78" s="2"/>
+      <c r="N78" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2">
+      <c r="A79" s="4">
         <v>42241.99792818287</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -4227,12 +4354,13 @@
       <c r="L79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="M79" s="2"/>
+      <c r="N79" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2">
+      <c r="A80" s="4">
         <v>42242.00088890047</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -4268,12 +4396,13 @@
       <c r="L80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="M80" s="2"/>
+      <c r="N80" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2">
+      <c r="A81" s="4">
         <v>42242.00697510417</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4309,12 +4438,13 @@
       <c r="L81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="M81" s="2"/>
+      <c r="N81" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2">
+      <c r="A82" s="4">
         <v>42242.01295395833</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -4350,12 +4480,13 @@
       <c r="L82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="M82" s="2"/>
+      <c r="N82" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2">
+      <c r="A83" s="4">
         <v>42242.016713125</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -4391,12 +4522,13 @@
       <c r="L83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="M83" s="2"/>
+      <c r="N83" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2">
+      <c r="A84" s="4">
         <v>42242.017239444445</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -4432,12 +4564,13 @@
       <c r="L84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="M84" s="2"/>
+      <c r="N84" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2">
+      <c r="A85" s="4">
         <v>42242.02431833334</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4473,12 +4606,13 @@
       <c r="L85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="M85" s="2"/>
+      <c r="N85" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2">
+      <c r="A86" s="4">
         <v>42242.02512329861</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -4514,12 +4648,13 @@
       <c r="L86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="M86" s="2"/>
+      <c r="N86" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="4">
         <v>42242.02941708334</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -4555,12 +4690,13 @@
       <c r="L87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="M87" s="2"/>
+      <c r="N87" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="4">
         <v>42242.030667280094</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -4596,12 +4732,13 @@
       <c r="L88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="M88" s="2"/>
+      <c r="N88" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="4">
         <v>42242.060398657406</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4637,12 +4774,13 @@
       <c r="L89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="M89" s="2"/>
+      <c r="N89" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="4">
         <v>42242.0669006713</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4678,12 +4816,13 @@
       <c r="L90" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="M90" s="2"/>
+      <c r="N90" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="4">
         <v>42242.08159273148</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -4719,15 +4858,15 @@
       <c r="L91" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="M91" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="N91" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="4">
         <v>42242.08771758102</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -4763,12 +4902,13 @@
       <c r="L92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="M92" s="2"/>
+      <c r="N92" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="4">
         <v>42242.12549590278</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4804,15 +4944,15 @@
       <c r="L93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="M93" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="N93" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="4">
         <v>42242.1444833912</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4848,12 +4988,13 @@
       <c r="L94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="M94" s="2"/>
+      <c r="N94" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2">
+      <c r="A95" s="4">
         <v>42242.17865564815</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -4889,12 +5030,13 @@
       <c r="L95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="M95" s="2"/>
+      <c r="N95" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2">
+      <c r="A96" s="4">
         <v>42242.283267928244</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4930,12 +5072,13 @@
       <c r="L96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="M96" s="2"/>
+      <c r="N96" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2">
+      <c r="A97" s="4">
         <v>42242.31490885417</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -4971,12 +5114,13 @@
       <c r="L97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="M97" s="2"/>
+      <c r="N97" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2">
+      <c r="A98" s="4">
         <v>42242.32556556713</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -5012,15 +5156,15 @@
       <c r="L98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M98" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="N98" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2">
+      <c r="A99" s="4">
         <v>42242.33054930555</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -5056,12 +5200,13 @@
       <c r="L99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="M99" s="2"/>
+      <c r="N99" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2">
+      <c r="A100" s="4">
         <v>42242.33243599537</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -5097,12 +5242,13 @@
       <c r="L100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="M100" s="2"/>
+      <c r="N100" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2">
+      <c r="A101" s="4">
         <v>42242.33751832176</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -5138,12 +5284,13 @@
       <c r="L101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="M101" s="2"/>
+      <c r="N101" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2">
+      <c r="A102" s="4">
         <v>42242.33842483796</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -5179,12 +5326,13 @@
       <c r="L102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="M102" s="2"/>
+      <c r="N102" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2">
+      <c r="A103" s="4">
         <v>42242.34069730324</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -5220,12 +5368,13 @@
       <c r="L103" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N103" s="1" t="s">
+      <c r="M103" s="2"/>
+      <c r="N103" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2">
+      <c r="A104" s="4">
         <v>42242.34152922453</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -5261,12 +5410,13 @@
       <c r="L104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N104" s="1" t="s">
+      <c r="M104" s="2"/>
+      <c r="N104" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2">
+      <c r="A105" s="4">
         <v>42242.36067060185</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -5302,12 +5452,13 @@
       <c r="L105" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N105" s="1" t="s">
+      <c r="M105" s="2"/>
+      <c r="N105" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2">
+      <c r="A106" s="4">
         <v>42242.37291825232</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -5340,15 +5491,15 @@
       <c r="K106" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M106" s="1" t="s">
+      <c r="M106" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N106" s="1" t="s">
+      <c r="N106" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2">
+      <c r="A107" s="4">
         <v>42242.375115625</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -5384,12 +5535,13 @@
       <c r="L107" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N107" s="1" t="s">
+      <c r="M107" s="2"/>
+      <c r="N107" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2">
+      <c r="A108" s="4">
         <v>42242.375951145834</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -5425,12 +5577,13 @@
       <c r="L108" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N108" s="1" t="s">
+      <c r="M108" s="2"/>
+      <c r="N108" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2">
+      <c r="A109" s="4">
         <v>42242.37792561343</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -5466,12 +5619,13 @@
       <c r="L109" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N109" s="1" t="s">
+      <c r="M109" s="2"/>
+      <c r="N109" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2">
+      <c r="A110" s="4">
         <v>42242.39575054398</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -5507,12 +5661,13 @@
       <c r="L110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N110" s="1" t="s">
+      <c r="M110" s="2"/>
+      <c r="N110" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2">
+      <c r="A111" s="4">
         <v>42242.404864571756</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -5548,12 +5703,13 @@
       <c r="L111" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N111" s="1" t="s">
+      <c r="M111" s="2"/>
+      <c r="N111" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2">
+      <c r="A112" s="4">
         <v>42242.40779195602</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -5589,12 +5745,13 @@
       <c r="L112" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N112" s="1" t="s">
+      <c r="M112" s="2"/>
+      <c r="N112" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2">
+      <c r="A113" s="4">
         <v>42242.413222048606</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -5630,12 +5787,13 @@
       <c r="L113" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N113" s="1" t="s">
+      <c r="M113" s="2"/>
+      <c r="N113" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2">
+      <c r="A114" s="4">
         <v>42242.441205497686</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -5671,15 +5829,15 @@
       <c r="L114" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M114" s="1" t="s">
+      <c r="M114" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N114" s="1" t="s">
+      <c r="N114" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2">
+      <c r="A115" s="4">
         <v>42242.44836685185</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -5715,12 +5873,13 @@
       <c r="L115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N115" s="1" t="s">
+      <c r="M115" s="2"/>
+      <c r="N115" s="3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2">
+      <c r="A116" s="4">
         <v>42242.459655439816</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -5756,12 +5915,13 @@
       <c r="L116" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N116" s="1" t="s">
+      <c r="M116" s="2"/>
+      <c r="N116" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2">
+      <c r="A117" s="4">
         <v>42242.45982956019</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -5797,12 +5957,13 @@
       <c r="L117" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N117" s="1" t="s">
+      <c r="M117" s="2"/>
+      <c r="N117" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2">
+      <c r="A118" s="4">
         <v>42242.46207571759</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -5838,15 +5999,15 @@
       <c r="L118" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="M118" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="N118" s="1" t="s">
+      <c r="N118" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2">
+      <c r="A119" s="4">
         <v>42242.46588505787</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -5882,12 +6043,13 @@
       <c r="L119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N119" s="1" t="s">
+      <c r="M119" s="2"/>
+      <c r="N119" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2">
+      <c r="A120" s="4">
         <v>42242.47345931713</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -5923,12 +6085,13 @@
       <c r="L120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N120" s="1" t="s">
+      <c r="M120" s="2"/>
+      <c r="N120" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2">
+      <c r="A121" s="4">
         <v>42242.47779222223</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -5964,12 +6127,13 @@
       <c r="L121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N121" s="1" t="s">
+      <c r="M121" s="2"/>
+      <c r="N121" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2">
+      <c r="A122" s="4">
         <v>42242.48214767361</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -6005,12 +6169,13 @@
       <c r="L122" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N122" s="1" t="s">
+      <c r="M122" s="2"/>
+      <c r="N122" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2">
+      <c r="A123" s="4">
         <v>42242.51025099537</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -6043,12 +6208,13 @@
       <c r="L123" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N123" s="1" t="s">
+      <c r="M123" s="2"/>
+      <c r="N123" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2">
+      <c r="A124" s="4">
         <v>42242.51589732639</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -6084,12 +6250,13 @@
       <c r="L124" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N124" s="1" t="s">
+      <c r="M124" s="2"/>
+      <c r="N124" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2">
+      <c r="A125" s="4">
         <v>42242.54426925926</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -6125,12 +6292,13 @@
       <c r="L125" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N125" s="1" t="s">
+      <c r="M125" s="2"/>
+      <c r="N125" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2">
+      <c r="A126" s="4">
         <v>42242.57988178241</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -6166,12 +6334,13 @@
       <c r="L126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N126" s="1" t="s">
+      <c r="M126" s="2"/>
+      <c r="N126" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2">
+      <c r="A127" s="4">
         <v>42242.59645994213</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -6207,12 +6376,13 @@
       <c r="L127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N127" s="1" t="s">
+      <c r="M127" s="2"/>
+      <c r="N127" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2">
+      <c r="A128" s="4">
         <v>42242.59791577546</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -6248,15 +6418,15 @@
       <c r="L128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="M128" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="N128" s="1" t="s">
+      <c r="N128" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2">
+      <c r="A129" s="4">
         <v>42242.60309611111</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -6292,12 +6462,13 @@
       <c r="L129" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N129" s="1" t="s">
+      <c r="M129" s="2"/>
+      <c r="N129" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2">
+      <c r="A130" s="4">
         <v>42242.62488021991</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -6333,12 +6504,13 @@
       <c r="L130" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N130" s="1" t="s">
+      <c r="M130" s="2"/>
+      <c r="N130" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2">
+      <c r="A131" s="4">
         <v>42242.643238958335</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -6374,15 +6546,15 @@
       <c r="L131" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="M131" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="N131" s="1" t="s">
+      <c r="N131" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2">
+      <c r="A132" s="4">
         <v>42242.64910244213</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -6418,12 +6590,13 @@
       <c r="L132" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N132" s="1" t="s">
+      <c r="M132" s="2"/>
+      <c r="N132" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2">
+      <c r="A133" s="4">
         <v>42242.67595409723</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -6459,12 +6632,13 @@
       <c r="L133" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N133" s="1" t="s">
+      <c r="M133" s="2"/>
+      <c r="N133" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2">
+      <c r="A134" s="4">
         <v>42242.71607576389</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -6500,12 +6674,13 @@
       <c r="L134" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N134" s="1" t="s">
+      <c r="M134" s="2"/>
+      <c r="N134" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2">
+      <c r="A135" s="4">
         <v>42242.71798375</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -6541,12 +6716,13 @@
       <c r="L135" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N135" s="1" t="s">
+      <c r="M135" s="2"/>
+      <c r="N135" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2">
+      <c r="A136" s="4">
         <v>42242.7735852662</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -6582,12 +6758,13 @@
       <c r="L136" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N136" s="1" t="s">
+      <c r="M136" s="2"/>
+      <c r="N136" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2">
+      <c r="A137" s="4">
         <v>42242.795697002315</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -6623,15 +6800,15 @@
       <c r="L137" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M137" s="1" t="s">
+      <c r="M137" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="N137" s="1" t="s">
+      <c r="N137" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2">
+      <c r="A138" s="4">
         <v>42242.81482497686</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -6667,12 +6844,13 @@
       <c r="L138" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N138" s="1" t="s">
+      <c r="M138" s="2"/>
+      <c r="N138" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2">
+      <c r="A139" s="4">
         <v>42242.8659384375</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -6708,12 +6886,13 @@
       <c r="L139" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N139" s="1" t="s">
+      <c r="M139" s="2"/>
+      <c r="N139" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2">
+      <c r="A140" s="4">
         <v>42242.892498506946</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -6749,12 +6928,13 @@
       <c r="L140" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N140" s="1" t="s">
+      <c r="M140" s="2"/>
+      <c r="N140" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2">
+      <c r="A141" s="4">
         <v>42242.899559467594</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -6790,12 +6970,13 @@
       <c r="L141" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N141" s="1" t="s">
+      <c r="M141" s="2"/>
+      <c r="N141" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2">
+      <c r="A142" s="4">
         <v>42242.89983631944</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -6831,12 +7012,13 @@
       <c r="L142" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N142" s="1" t="s">
+      <c r="M142" s="2"/>
+      <c r="N142" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2">
+      <c r="A143" s="4">
         <v>42242.93014190972</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -6872,12 +7054,13 @@
       <c r="L143" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N143" s="1" t="s">
+      <c r="M143" s="2"/>
+      <c r="N143" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2">
+      <c r="A144" s="4">
         <v>42242.94402736111</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -6913,12 +7096,13 @@
       <c r="L144" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N144" s="1" t="s">
+      <c r="M144" s="2"/>
+      <c r="N144" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2">
+      <c r="A145" s="4">
         <v>42242.96655304398</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -6954,12 +7138,13 @@
       <c r="L145" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N145" s="1" t="s">
+      <c r="M145" s="2"/>
+      <c r="N145" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2">
+      <c r="A146" s="4">
         <v>42242.97412810185</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -6995,12 +7180,13 @@
       <c r="L146" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N146" s="1" t="s">
+      <c r="M146" s="2"/>
+      <c r="N146" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2">
+      <c r="A147" s="4">
         <v>42243.330131400464</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -7036,12 +7222,13 @@
       <c r="L147" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N147" s="1" t="s">
+      <c r="M147" s="2"/>
+      <c r="N147" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2">
+      <c r="A148" s="4">
         <v>42243.442533194444</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -7077,12 +7264,13 @@
       <c r="L148" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N148" s="1" t="s">
+      <c r="M148" s="2"/>
+      <c r="N148" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2">
+      <c r="A149" s="4">
         <v>42243.44544930555</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -7118,15 +7306,15 @@
       <c r="L149" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M149" s="1" t="s">
+      <c r="M149" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="N149" s="1" t="s">
+      <c r="N149" s="3" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2">
+      <c r="A150" s="4">
         <v>42243.45559878473</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -7162,15 +7350,15 @@
       <c r="L150" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M150" s="1" t="s">
+      <c r="M150" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="N150" s="1" t="s">
+      <c r="N150" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2">
+      <c r="A151" s="4">
         <v>42250.67283383102</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -7206,9 +7394,4221 @@
       <c r="L151" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N151" s="1" t="s">
+      <c r="M151" s="2"/>
+      <c r="N151" s="3" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4">
+        <v>42253.98533717592</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="1">
+        <v>2007.0</v>
+      </c>
+      <c r="F152" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G152" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4">
+        <v>42253.98943199074</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E153" s="1">
+        <v>2008.0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="G153" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M153" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4">
+        <v>42254.00650024306</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1996.0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G154" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M154" s="2"/>
+      <c r="N154" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4">
+        <v>42254.05929883102</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E155" s="1">
+        <v>2011.0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G155" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4">
+        <v>42254.41443238426</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2009.0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="M157" s="2"/>
+      <c r="N157" s="5"/>
+    </row>
+    <row r="158">
+      <c r="M158" s="2"/>
+      <c r="N158" s="5"/>
+    </row>
+    <row r="159">
+      <c r="M159" s="2"/>
+      <c r="N159" s="5"/>
+    </row>
+    <row r="160">
+      <c r="M160" s="2"/>
+      <c r="N160" s="5"/>
+    </row>
+    <row r="161">
+      <c r="M161" s="2"/>
+      <c r="N161" s="5"/>
+    </row>
+    <row r="162">
+      <c r="M162" s="2"/>
+      <c r="N162" s="5"/>
+    </row>
+    <row r="163">
+      <c r="M163" s="2"/>
+      <c r="N163" s="5"/>
+    </row>
+    <row r="164">
+      <c r="M164" s="2"/>
+      <c r="N164" s="5"/>
+    </row>
+    <row r="165">
+      <c r="M165" s="2"/>
+      <c r="N165" s="5"/>
+    </row>
+    <row r="166">
+      <c r="M166" s="2"/>
+      <c r="N166" s="5"/>
+    </row>
+    <row r="167">
+      <c r="M167" s="2"/>
+      <c r="N167" s="5"/>
+    </row>
+    <row r="168">
+      <c r="M168" s="2"/>
+      <c r="N168" s="5"/>
+    </row>
+    <row r="169">
+      <c r="M169" s="2"/>
+      <c r="N169" s="5"/>
+    </row>
+    <row r="170">
+      <c r="M170" s="2"/>
+      <c r="N170" s="5"/>
+    </row>
+    <row r="171">
+      <c r="M171" s="2"/>
+      <c r="N171" s="5"/>
+    </row>
+    <row r="172">
+      <c r="M172" s="2"/>
+      <c r="N172" s="5"/>
+    </row>
+    <row r="173">
+      <c r="M173" s="2"/>
+      <c r="N173" s="5"/>
+    </row>
+    <row r="174">
+      <c r="M174" s="2"/>
+      <c r="N174" s="5"/>
+    </row>
+    <row r="175">
+      <c r="M175" s="2"/>
+      <c r="N175" s="5"/>
+    </row>
+    <row r="176">
+      <c r="M176" s="2"/>
+      <c r="N176" s="5"/>
+    </row>
+    <row r="177">
+      <c r="M177" s="2"/>
+      <c r="N177" s="5"/>
+    </row>
+    <row r="178">
+      <c r="M178" s="2"/>
+      <c r="N178" s="5"/>
+    </row>
+    <row r="179">
+      <c r="M179" s="2"/>
+      <c r="N179" s="5"/>
+    </row>
+    <row r="180">
+      <c r="M180" s="2"/>
+      <c r="N180" s="5"/>
+    </row>
+    <row r="181">
+      <c r="M181" s="2"/>
+      <c r="N181" s="5"/>
+    </row>
+    <row r="182">
+      <c r="M182" s="2"/>
+      <c r="N182" s="5"/>
+    </row>
+    <row r="183">
+      <c r="M183" s="2"/>
+      <c r="N183" s="5"/>
+    </row>
+    <row r="184">
+      <c r="M184" s="2"/>
+      <c r="N184" s="5"/>
+    </row>
+    <row r="185">
+      <c r="M185" s="2"/>
+      <c r="N185" s="5"/>
+    </row>
+    <row r="186">
+      <c r="M186" s="2"/>
+      <c r="N186" s="5"/>
+    </row>
+    <row r="187">
+      <c r="M187" s="2"/>
+      <c r="N187" s="5"/>
+    </row>
+    <row r="188">
+      <c r="M188" s="2"/>
+      <c r="N188" s="5"/>
+    </row>
+    <row r="189">
+      <c r="M189" s="2"/>
+      <c r="N189" s="5"/>
+    </row>
+    <row r="190">
+      <c r="M190" s="2"/>
+      <c r="N190" s="5"/>
+    </row>
+    <row r="191">
+      <c r="M191" s="2"/>
+      <c r="N191" s="5"/>
+    </row>
+    <row r="192">
+      <c r="M192" s="2"/>
+      <c r="N192" s="5"/>
+    </row>
+    <row r="193">
+      <c r="M193" s="2"/>
+      <c r="N193" s="5"/>
+    </row>
+    <row r="194">
+      <c r="M194" s="2"/>
+      <c r="N194" s="5"/>
+    </row>
+    <row r="195">
+      <c r="M195" s="2"/>
+      <c r="N195" s="5"/>
+    </row>
+    <row r="196">
+      <c r="M196" s="2"/>
+      <c r="N196" s="5"/>
+    </row>
+    <row r="197">
+      <c r="M197" s="2"/>
+      <c r="N197" s="5"/>
+    </row>
+    <row r="198">
+      <c r="M198" s="2"/>
+      <c r="N198" s="5"/>
+    </row>
+    <row r="199">
+      <c r="M199" s="2"/>
+      <c r="N199" s="5"/>
+    </row>
+    <row r="200">
+      <c r="M200" s="2"/>
+      <c r="N200" s="5"/>
+    </row>
+    <row r="201">
+      <c r="M201" s="2"/>
+      <c r="N201" s="5"/>
+    </row>
+    <row r="202">
+      <c r="M202" s="2"/>
+      <c r="N202" s="5"/>
+    </row>
+    <row r="203">
+      <c r="M203" s="2"/>
+      <c r="N203" s="5"/>
+    </row>
+    <row r="204">
+      <c r="M204" s="2"/>
+      <c r="N204" s="5"/>
+    </row>
+    <row r="205">
+      <c r="M205" s="2"/>
+      <c r="N205" s="5"/>
+    </row>
+    <row r="206">
+      <c r="M206" s="2"/>
+      <c r="N206" s="5"/>
+    </row>
+    <row r="207">
+      <c r="M207" s="2"/>
+      <c r="N207" s="5"/>
+    </row>
+    <row r="208">
+      <c r="M208" s="2"/>
+      <c r="N208" s="5"/>
+    </row>
+    <row r="209">
+      <c r="M209" s="2"/>
+      <c r="N209" s="5"/>
+    </row>
+    <row r="210">
+      <c r="M210" s="2"/>
+      <c r="N210" s="5"/>
+    </row>
+    <row r="211">
+      <c r="M211" s="2"/>
+      <c r="N211" s="5"/>
+    </row>
+    <row r="212">
+      <c r="M212" s="2"/>
+      <c r="N212" s="5"/>
+    </row>
+    <row r="213">
+      <c r="M213" s="2"/>
+      <c r="N213" s="5"/>
+    </row>
+    <row r="214">
+      <c r="M214" s="2"/>
+      <c r="N214" s="5"/>
+    </row>
+    <row r="215">
+      <c r="M215" s="2"/>
+      <c r="N215" s="5"/>
+    </row>
+    <row r="216">
+      <c r="M216" s="2"/>
+      <c r="N216" s="5"/>
+    </row>
+    <row r="217">
+      <c r="M217" s="2"/>
+      <c r="N217" s="5"/>
+    </row>
+    <row r="218">
+      <c r="M218" s="2"/>
+      <c r="N218" s="5"/>
+    </row>
+    <row r="219">
+      <c r="M219" s="2"/>
+      <c r="N219" s="5"/>
+    </row>
+    <row r="220">
+      <c r="M220" s="2"/>
+      <c r="N220" s="5"/>
+    </row>
+    <row r="221">
+      <c r="M221" s="2"/>
+      <c r="N221" s="5"/>
+    </row>
+    <row r="222">
+      <c r="M222" s="2"/>
+      <c r="N222" s="5"/>
+    </row>
+    <row r="223">
+      <c r="M223" s="2"/>
+      <c r="N223" s="5"/>
+    </row>
+    <row r="224">
+      <c r="M224" s="2"/>
+      <c r="N224" s="5"/>
+    </row>
+    <row r="225">
+      <c r="M225" s="2"/>
+      <c r="N225" s="5"/>
+    </row>
+    <row r="226">
+      <c r="M226" s="2"/>
+      <c r="N226" s="5"/>
+    </row>
+    <row r="227">
+      <c r="M227" s="2"/>
+      <c r="N227" s="5"/>
+    </row>
+    <row r="228">
+      <c r="M228" s="2"/>
+      <c r="N228" s="5"/>
+    </row>
+    <row r="229">
+      <c r="M229" s="2"/>
+      <c r="N229" s="5"/>
+    </row>
+    <row r="230">
+      <c r="M230" s="2"/>
+      <c r="N230" s="5"/>
+    </row>
+    <row r="231">
+      <c r="M231" s="2"/>
+      <c r="N231" s="5"/>
+    </row>
+    <row r="232">
+      <c r="M232" s="2"/>
+      <c r="N232" s="5"/>
+    </row>
+    <row r="233">
+      <c r="M233" s="2"/>
+      <c r="N233" s="5"/>
+    </row>
+    <row r="234">
+      <c r="M234" s="2"/>
+      <c r="N234" s="5"/>
+    </row>
+    <row r="235">
+      <c r="M235" s="2"/>
+      <c r="N235" s="5"/>
+    </row>
+    <row r="236">
+      <c r="M236" s="2"/>
+      <c r="N236" s="5"/>
+    </row>
+    <row r="237">
+      <c r="M237" s="2"/>
+      <c r="N237" s="5"/>
+    </row>
+    <row r="238">
+      <c r="M238" s="2"/>
+      <c r="N238" s="5"/>
+    </row>
+    <row r="239">
+      <c r="M239" s="2"/>
+      <c r="N239" s="5"/>
+    </row>
+    <row r="240">
+      <c r="M240" s="2"/>
+      <c r="N240" s="5"/>
+    </row>
+    <row r="241">
+      <c r="M241" s="2"/>
+      <c r="N241" s="5"/>
+    </row>
+    <row r="242">
+      <c r="M242" s="2"/>
+      <c r="N242" s="5"/>
+    </row>
+    <row r="243">
+      <c r="M243" s="2"/>
+      <c r="N243" s="5"/>
+    </row>
+    <row r="244">
+      <c r="M244" s="2"/>
+      <c r="N244" s="5"/>
+    </row>
+    <row r="245">
+      <c r="M245" s="2"/>
+      <c r="N245" s="5"/>
+    </row>
+    <row r="246">
+      <c r="M246" s="2"/>
+      <c r="N246" s="5"/>
+    </row>
+    <row r="247">
+      <c r="M247" s="2"/>
+      <c r="N247" s="5"/>
+    </row>
+    <row r="248">
+      <c r="M248" s="2"/>
+      <c r="N248" s="5"/>
+    </row>
+    <row r="249">
+      <c r="M249" s="2"/>
+      <c r="N249" s="5"/>
+    </row>
+    <row r="250">
+      <c r="M250" s="2"/>
+      <c r="N250" s="5"/>
+    </row>
+    <row r="251">
+      <c r="M251" s="2"/>
+      <c r="N251" s="5"/>
+    </row>
+    <row r="252">
+      <c r="M252" s="2"/>
+      <c r="N252" s="5"/>
+    </row>
+    <row r="253">
+      <c r="M253" s="2"/>
+      <c r="N253" s="5"/>
+    </row>
+    <row r="254">
+      <c r="M254" s="2"/>
+      <c r="N254" s="5"/>
+    </row>
+    <row r="255">
+      <c r="M255" s="2"/>
+      <c r="N255" s="5"/>
+    </row>
+    <row r="256">
+      <c r="M256" s="2"/>
+      <c r="N256" s="5"/>
+    </row>
+    <row r="257">
+      <c r="M257" s="2"/>
+      <c r="N257" s="5"/>
+    </row>
+    <row r="258">
+      <c r="M258" s="2"/>
+      <c r="N258" s="5"/>
+    </row>
+    <row r="259">
+      <c r="M259" s="2"/>
+      <c r="N259" s="5"/>
+    </row>
+    <row r="260">
+      <c r="M260" s="2"/>
+      <c r="N260" s="5"/>
+    </row>
+    <row r="261">
+      <c r="M261" s="2"/>
+      <c r="N261" s="5"/>
+    </row>
+    <row r="262">
+      <c r="M262" s="2"/>
+      <c r="N262" s="5"/>
+    </row>
+    <row r="263">
+      <c r="M263" s="2"/>
+      <c r="N263" s="5"/>
+    </row>
+    <row r="264">
+      <c r="M264" s="2"/>
+      <c r="N264" s="5"/>
+    </row>
+    <row r="265">
+      <c r="M265" s="2"/>
+      <c r="N265" s="5"/>
+    </row>
+    <row r="266">
+      <c r="M266" s="2"/>
+      <c r="N266" s="5"/>
+    </row>
+    <row r="267">
+      <c r="M267" s="2"/>
+      <c r="N267" s="5"/>
+    </row>
+    <row r="268">
+      <c r="M268" s="2"/>
+      <c r="N268" s="5"/>
+    </row>
+    <row r="269">
+      <c r="M269" s="2"/>
+      <c r="N269" s="5"/>
+    </row>
+    <row r="270">
+      <c r="M270" s="2"/>
+      <c r="N270" s="5"/>
+    </row>
+    <row r="271">
+      <c r="M271" s="2"/>
+      <c r="N271" s="5"/>
+    </row>
+    <row r="272">
+      <c r="M272" s="2"/>
+      <c r="N272" s="5"/>
+    </row>
+    <row r="273">
+      <c r="M273" s="2"/>
+      <c r="N273" s="5"/>
+    </row>
+    <row r="274">
+      <c r="M274" s="2"/>
+      <c r="N274" s="5"/>
+    </row>
+    <row r="275">
+      <c r="M275" s="2"/>
+      <c r="N275" s="5"/>
+    </row>
+    <row r="276">
+      <c r="M276" s="2"/>
+      <c r="N276" s="5"/>
+    </row>
+    <row r="277">
+      <c r="M277" s="2"/>
+      <c r="N277" s="5"/>
+    </row>
+    <row r="278">
+      <c r="M278" s="2"/>
+      <c r="N278" s="5"/>
+    </row>
+    <row r="279">
+      <c r="M279" s="2"/>
+      <c r="N279" s="5"/>
+    </row>
+    <row r="280">
+      <c r="M280" s="2"/>
+      <c r="N280" s="5"/>
+    </row>
+    <row r="281">
+      <c r="M281" s="2"/>
+      <c r="N281" s="5"/>
+    </row>
+    <row r="282">
+      <c r="M282" s="2"/>
+      <c r="N282" s="5"/>
+    </row>
+    <row r="283">
+      <c r="M283" s="2"/>
+      <c r="N283" s="5"/>
+    </row>
+    <row r="284">
+      <c r="M284" s="2"/>
+      <c r="N284" s="5"/>
+    </row>
+    <row r="285">
+      <c r="M285" s="2"/>
+      <c r="N285" s="5"/>
+    </row>
+    <row r="286">
+      <c r="M286" s="2"/>
+      <c r="N286" s="5"/>
+    </row>
+    <row r="287">
+      <c r="M287" s="2"/>
+      <c r="N287" s="5"/>
+    </row>
+    <row r="288">
+      <c r="M288" s="2"/>
+      <c r="N288" s="5"/>
+    </row>
+    <row r="289">
+      <c r="M289" s="2"/>
+      <c r="N289" s="5"/>
+    </row>
+    <row r="290">
+      <c r="M290" s="2"/>
+      <c r="N290" s="5"/>
+    </row>
+    <row r="291">
+      <c r="M291" s="2"/>
+      <c r="N291" s="5"/>
+    </row>
+    <row r="292">
+      <c r="M292" s="2"/>
+      <c r="N292" s="5"/>
+    </row>
+    <row r="293">
+      <c r="M293" s="2"/>
+      <c r="N293" s="5"/>
+    </row>
+    <row r="294">
+      <c r="M294" s="2"/>
+      <c r="N294" s="5"/>
+    </row>
+    <row r="295">
+      <c r="M295" s="2"/>
+      <c r="N295" s="5"/>
+    </row>
+    <row r="296">
+      <c r="M296" s="2"/>
+      <c r="N296" s="5"/>
+    </row>
+    <row r="297">
+      <c r="M297" s="2"/>
+      <c r="N297" s="5"/>
+    </row>
+    <row r="298">
+      <c r="M298" s="2"/>
+      <c r="N298" s="5"/>
+    </row>
+    <row r="299">
+      <c r="M299" s="2"/>
+      <c r="N299" s="5"/>
+    </row>
+    <row r="300">
+      <c r="M300" s="2"/>
+      <c r="N300" s="5"/>
+    </row>
+    <row r="301">
+      <c r="M301" s="2"/>
+      <c r="N301" s="5"/>
+    </row>
+    <row r="302">
+      <c r="M302" s="2"/>
+      <c r="N302" s="5"/>
+    </row>
+    <row r="303">
+      <c r="M303" s="2"/>
+      <c r="N303" s="5"/>
+    </row>
+    <row r="304">
+      <c r="M304" s="2"/>
+      <c r="N304" s="5"/>
+    </row>
+    <row r="305">
+      <c r="M305" s="2"/>
+      <c r="N305" s="5"/>
+    </row>
+    <row r="306">
+      <c r="M306" s="2"/>
+      <c r="N306" s="5"/>
+    </row>
+    <row r="307">
+      <c r="M307" s="2"/>
+      <c r="N307" s="5"/>
+    </row>
+    <row r="308">
+      <c r="M308" s="2"/>
+      <c r="N308" s="5"/>
+    </row>
+    <row r="309">
+      <c r="M309" s="2"/>
+      <c r="N309" s="5"/>
+    </row>
+    <row r="310">
+      <c r="M310" s="2"/>
+      <c r="N310" s="5"/>
+    </row>
+    <row r="311">
+      <c r="M311" s="2"/>
+      <c r="N311" s="5"/>
+    </row>
+    <row r="312">
+      <c r="M312" s="2"/>
+      <c r="N312" s="5"/>
+    </row>
+    <row r="313">
+      <c r="M313" s="2"/>
+      <c r="N313" s="5"/>
+    </row>
+    <row r="314">
+      <c r="M314" s="2"/>
+      <c r="N314" s="5"/>
+    </row>
+    <row r="315">
+      <c r="M315" s="2"/>
+      <c r="N315" s="5"/>
+    </row>
+    <row r="316">
+      <c r="M316" s="2"/>
+      <c r="N316" s="5"/>
+    </row>
+    <row r="317">
+      <c r="M317" s="2"/>
+      <c r="N317" s="5"/>
+    </row>
+    <row r="318">
+      <c r="M318" s="2"/>
+      <c r="N318" s="5"/>
+    </row>
+    <row r="319">
+      <c r="M319" s="2"/>
+      <c r="N319" s="5"/>
+    </row>
+    <row r="320">
+      <c r="M320" s="2"/>
+      <c r="N320" s="5"/>
+    </row>
+    <row r="321">
+      <c r="M321" s="2"/>
+      <c r="N321" s="5"/>
+    </row>
+    <row r="322">
+      <c r="M322" s="2"/>
+      <c r="N322" s="5"/>
+    </row>
+    <row r="323">
+      <c r="M323" s="2"/>
+      <c r="N323" s="5"/>
+    </row>
+    <row r="324">
+      <c r="M324" s="2"/>
+      <c r="N324" s="5"/>
+    </row>
+    <row r="325">
+      <c r="M325" s="2"/>
+      <c r="N325" s="5"/>
+    </row>
+    <row r="326">
+      <c r="M326" s="2"/>
+      <c r="N326" s="5"/>
+    </row>
+    <row r="327">
+      <c r="M327" s="2"/>
+      <c r="N327" s="5"/>
+    </row>
+    <row r="328">
+      <c r="M328" s="2"/>
+      <c r="N328" s="5"/>
+    </row>
+    <row r="329">
+      <c r="M329" s="2"/>
+      <c r="N329" s="5"/>
+    </row>
+    <row r="330">
+      <c r="M330" s="2"/>
+      <c r="N330" s="5"/>
+    </row>
+    <row r="331">
+      <c r="M331" s="2"/>
+      <c r="N331" s="5"/>
+    </row>
+    <row r="332">
+      <c r="M332" s="2"/>
+      <c r="N332" s="5"/>
+    </row>
+    <row r="333">
+      <c r="M333" s="2"/>
+      <c r="N333" s="5"/>
+    </row>
+    <row r="334">
+      <c r="M334" s="2"/>
+      <c r="N334" s="5"/>
+    </row>
+    <row r="335">
+      <c r="M335" s="2"/>
+      <c r="N335" s="5"/>
+    </row>
+    <row r="336">
+      <c r="M336" s="2"/>
+      <c r="N336" s="5"/>
+    </row>
+    <row r="337">
+      <c r="M337" s="2"/>
+      <c r="N337" s="5"/>
+    </row>
+    <row r="338">
+      <c r="M338" s="2"/>
+      <c r="N338" s="5"/>
+    </row>
+    <row r="339">
+      <c r="M339" s="2"/>
+      <c r="N339" s="5"/>
+    </row>
+    <row r="340">
+      <c r="M340" s="2"/>
+      <c r="N340" s="5"/>
+    </row>
+    <row r="341">
+      <c r="M341" s="2"/>
+      <c r="N341" s="5"/>
+    </row>
+    <row r="342">
+      <c r="M342" s="2"/>
+      <c r="N342" s="5"/>
+    </row>
+    <row r="343">
+      <c r="M343" s="2"/>
+      <c r="N343" s="5"/>
+    </row>
+    <row r="344">
+      <c r="M344" s="2"/>
+      <c r="N344" s="5"/>
+    </row>
+    <row r="345">
+      <c r="M345" s="2"/>
+      <c r="N345" s="5"/>
+    </row>
+    <row r="346">
+      <c r="M346" s="2"/>
+      <c r="N346" s="5"/>
+    </row>
+    <row r="347">
+      <c r="M347" s="2"/>
+      <c r="N347" s="5"/>
+    </row>
+    <row r="348">
+      <c r="M348" s="2"/>
+      <c r="N348" s="5"/>
+    </row>
+    <row r="349">
+      <c r="M349" s="2"/>
+      <c r="N349" s="5"/>
+    </row>
+    <row r="350">
+      <c r="M350" s="2"/>
+      <c r="N350" s="5"/>
+    </row>
+    <row r="351">
+      <c r="M351" s="2"/>
+      <c r="N351" s="5"/>
+    </row>
+    <row r="352">
+      <c r="M352" s="2"/>
+      <c r="N352" s="5"/>
+    </row>
+    <row r="353">
+      <c r="M353" s="2"/>
+      <c r="N353" s="5"/>
+    </row>
+    <row r="354">
+      <c r="M354" s="2"/>
+      <c r="N354" s="5"/>
+    </row>
+    <row r="355">
+      <c r="M355" s="2"/>
+      <c r="N355" s="5"/>
+    </row>
+    <row r="356">
+      <c r="M356" s="2"/>
+      <c r="N356" s="5"/>
+    </row>
+    <row r="357">
+      <c r="M357" s="2"/>
+      <c r="N357" s="5"/>
+    </row>
+    <row r="358">
+      <c r="M358" s="2"/>
+      <c r="N358" s="5"/>
+    </row>
+    <row r="359">
+      <c r="M359" s="2"/>
+      <c r="N359" s="5"/>
+    </row>
+    <row r="360">
+      <c r="M360" s="2"/>
+      <c r="N360" s="5"/>
+    </row>
+    <row r="361">
+      <c r="M361" s="2"/>
+      <c r="N361" s="5"/>
+    </row>
+    <row r="362">
+      <c r="M362" s="2"/>
+      <c r="N362" s="5"/>
+    </row>
+    <row r="363">
+      <c r="M363" s="2"/>
+      <c r="N363" s="5"/>
+    </row>
+    <row r="364">
+      <c r="M364" s="2"/>
+      <c r="N364" s="5"/>
+    </row>
+    <row r="365">
+      <c r="M365" s="2"/>
+      <c r="N365" s="5"/>
+    </row>
+    <row r="366">
+      <c r="M366" s="2"/>
+      <c r="N366" s="5"/>
+    </row>
+    <row r="367">
+      <c r="M367" s="2"/>
+      <c r="N367" s="5"/>
+    </row>
+    <row r="368">
+      <c r="M368" s="2"/>
+      <c r="N368" s="5"/>
+    </row>
+    <row r="369">
+      <c r="M369" s="2"/>
+      <c r="N369" s="5"/>
+    </row>
+    <row r="370">
+      <c r="M370" s="2"/>
+      <c r="N370" s="5"/>
+    </row>
+    <row r="371">
+      <c r="M371" s="2"/>
+      <c r="N371" s="5"/>
+    </row>
+    <row r="372">
+      <c r="M372" s="2"/>
+      <c r="N372" s="5"/>
+    </row>
+    <row r="373">
+      <c r="M373" s="2"/>
+      <c r="N373" s="5"/>
+    </row>
+    <row r="374">
+      <c r="M374" s="2"/>
+      <c r="N374" s="5"/>
+    </row>
+    <row r="375">
+      <c r="M375" s="2"/>
+      <c r="N375" s="5"/>
+    </row>
+    <row r="376">
+      <c r="M376" s="2"/>
+      <c r="N376" s="5"/>
+    </row>
+    <row r="377">
+      <c r="M377" s="2"/>
+      <c r="N377" s="5"/>
+    </row>
+    <row r="378">
+      <c r="M378" s="2"/>
+      <c r="N378" s="5"/>
+    </row>
+    <row r="379">
+      <c r="M379" s="2"/>
+      <c r="N379" s="5"/>
+    </row>
+    <row r="380">
+      <c r="M380" s="2"/>
+      <c r="N380" s="5"/>
+    </row>
+    <row r="381">
+      <c r="M381" s="2"/>
+      <c r="N381" s="5"/>
+    </row>
+    <row r="382">
+      <c r="M382" s="2"/>
+      <c r="N382" s="5"/>
+    </row>
+    <row r="383">
+      <c r="M383" s="2"/>
+      <c r="N383" s="5"/>
+    </row>
+    <row r="384">
+      <c r="M384" s="2"/>
+      <c r="N384" s="5"/>
+    </row>
+    <row r="385">
+      <c r="M385" s="2"/>
+      <c r="N385" s="5"/>
+    </row>
+    <row r="386">
+      <c r="M386" s="2"/>
+      <c r="N386" s="5"/>
+    </row>
+    <row r="387">
+      <c r="M387" s="2"/>
+      <c r="N387" s="5"/>
+    </row>
+    <row r="388">
+      <c r="M388" s="2"/>
+      <c r="N388" s="5"/>
+    </row>
+    <row r="389">
+      <c r="M389" s="2"/>
+      <c r="N389" s="5"/>
+    </row>
+    <row r="390">
+      <c r="M390" s="2"/>
+      <c r="N390" s="5"/>
+    </row>
+    <row r="391">
+      <c r="M391" s="2"/>
+      <c r="N391" s="5"/>
+    </row>
+    <row r="392">
+      <c r="M392" s="2"/>
+      <c r="N392" s="5"/>
+    </row>
+    <row r="393">
+      <c r="M393" s="2"/>
+      <c r="N393" s="5"/>
+    </row>
+    <row r="394">
+      <c r="M394" s="2"/>
+      <c r="N394" s="5"/>
+    </row>
+    <row r="395">
+      <c r="M395" s="2"/>
+      <c r="N395" s="5"/>
+    </row>
+    <row r="396">
+      <c r="M396" s="2"/>
+      <c r="N396" s="5"/>
+    </row>
+    <row r="397">
+      <c r="M397" s="2"/>
+      <c r="N397" s="5"/>
+    </row>
+    <row r="398">
+      <c r="M398" s="2"/>
+      <c r="N398" s="5"/>
+    </row>
+    <row r="399">
+      <c r="M399" s="2"/>
+      <c r="N399" s="5"/>
+    </row>
+    <row r="400">
+      <c r="M400" s="2"/>
+      <c r="N400" s="5"/>
+    </row>
+    <row r="401">
+      <c r="M401" s="2"/>
+      <c r="N401" s="5"/>
+    </row>
+    <row r="402">
+      <c r="M402" s="2"/>
+      <c r="N402" s="5"/>
+    </row>
+    <row r="403">
+      <c r="M403" s="2"/>
+      <c r="N403" s="5"/>
+    </row>
+    <row r="404">
+      <c r="M404" s="2"/>
+      <c r="N404" s="5"/>
+    </row>
+    <row r="405">
+      <c r="M405" s="2"/>
+      <c r="N405" s="5"/>
+    </row>
+    <row r="406">
+      <c r="M406" s="2"/>
+      <c r="N406" s="5"/>
+    </row>
+    <row r="407">
+      <c r="M407" s="2"/>
+      <c r="N407" s="5"/>
+    </row>
+    <row r="408">
+      <c r="M408" s="2"/>
+      <c r="N408" s="5"/>
+    </row>
+    <row r="409">
+      <c r="M409" s="2"/>
+      <c r="N409" s="5"/>
+    </row>
+    <row r="410">
+      <c r="M410" s="2"/>
+      <c r="N410" s="5"/>
+    </row>
+    <row r="411">
+      <c r="M411" s="2"/>
+      <c r="N411" s="5"/>
+    </row>
+    <row r="412">
+      <c r="M412" s="2"/>
+      <c r="N412" s="5"/>
+    </row>
+    <row r="413">
+      <c r="M413" s="2"/>
+      <c r="N413" s="5"/>
+    </row>
+    <row r="414">
+      <c r="M414" s="2"/>
+      <c r="N414" s="5"/>
+    </row>
+    <row r="415">
+      <c r="M415" s="2"/>
+      <c r="N415" s="5"/>
+    </row>
+    <row r="416">
+      <c r="M416" s="2"/>
+      <c r="N416" s="5"/>
+    </row>
+    <row r="417">
+      <c r="M417" s="2"/>
+      <c r="N417" s="5"/>
+    </row>
+    <row r="418">
+      <c r="M418" s="2"/>
+      <c r="N418" s="5"/>
+    </row>
+    <row r="419">
+      <c r="M419" s="2"/>
+      <c r="N419" s="5"/>
+    </row>
+    <row r="420">
+      <c r="M420" s="2"/>
+      <c r="N420" s="5"/>
+    </row>
+    <row r="421">
+      <c r="M421" s="2"/>
+      <c r="N421" s="5"/>
+    </row>
+    <row r="422">
+      <c r="M422" s="2"/>
+      <c r="N422" s="5"/>
+    </row>
+    <row r="423">
+      <c r="M423" s="2"/>
+      <c r="N423" s="5"/>
+    </row>
+    <row r="424">
+      <c r="M424" s="2"/>
+      <c r="N424" s="5"/>
+    </row>
+    <row r="425">
+      <c r="M425" s="2"/>
+      <c r="N425" s="5"/>
+    </row>
+    <row r="426">
+      <c r="M426" s="2"/>
+      <c r="N426" s="5"/>
+    </row>
+    <row r="427">
+      <c r="M427" s="2"/>
+      <c r="N427" s="5"/>
+    </row>
+    <row r="428">
+      <c r="M428" s="2"/>
+      <c r="N428" s="5"/>
+    </row>
+    <row r="429">
+      <c r="M429" s="2"/>
+      <c r="N429" s="5"/>
+    </row>
+    <row r="430">
+      <c r="M430" s="2"/>
+      <c r="N430" s="5"/>
+    </row>
+    <row r="431">
+      <c r="M431" s="2"/>
+      <c r="N431" s="5"/>
+    </row>
+    <row r="432">
+      <c r="M432" s="2"/>
+      <c r="N432" s="5"/>
+    </row>
+    <row r="433">
+      <c r="M433" s="2"/>
+      <c r="N433" s="5"/>
+    </row>
+    <row r="434">
+      <c r="M434" s="2"/>
+      <c r="N434" s="5"/>
+    </row>
+    <row r="435">
+      <c r="M435" s="2"/>
+      <c r="N435" s="5"/>
+    </row>
+    <row r="436">
+      <c r="M436" s="2"/>
+      <c r="N436" s="5"/>
+    </row>
+    <row r="437">
+      <c r="M437" s="2"/>
+      <c r="N437" s="5"/>
+    </row>
+    <row r="438">
+      <c r="M438" s="2"/>
+      <c r="N438" s="5"/>
+    </row>
+    <row r="439">
+      <c r="M439" s="2"/>
+      <c r="N439" s="5"/>
+    </row>
+    <row r="440">
+      <c r="M440" s="2"/>
+      <c r="N440" s="5"/>
+    </row>
+    <row r="441">
+      <c r="M441" s="2"/>
+      <c r="N441" s="5"/>
+    </row>
+    <row r="442">
+      <c r="M442" s="2"/>
+      <c r="N442" s="5"/>
+    </row>
+    <row r="443">
+      <c r="M443" s="2"/>
+      <c r="N443" s="5"/>
+    </row>
+    <row r="444">
+      <c r="M444" s="2"/>
+      <c r="N444" s="5"/>
+    </row>
+    <row r="445">
+      <c r="M445" s="2"/>
+      <c r="N445" s="5"/>
+    </row>
+    <row r="446">
+      <c r="M446" s="2"/>
+      <c r="N446" s="5"/>
+    </row>
+    <row r="447">
+      <c r="M447" s="2"/>
+      <c r="N447" s="5"/>
+    </row>
+    <row r="448">
+      <c r="M448" s="2"/>
+      <c r="N448" s="5"/>
+    </row>
+    <row r="449">
+      <c r="M449" s="2"/>
+      <c r="N449" s="5"/>
+    </row>
+    <row r="450">
+      <c r="M450" s="2"/>
+      <c r="N450" s="5"/>
+    </row>
+    <row r="451">
+      <c r="M451" s="2"/>
+      <c r="N451" s="5"/>
+    </row>
+    <row r="452">
+      <c r="M452" s="2"/>
+      <c r="N452" s="5"/>
+    </row>
+    <row r="453">
+      <c r="M453" s="2"/>
+      <c r="N453" s="5"/>
+    </row>
+    <row r="454">
+      <c r="M454" s="2"/>
+      <c r="N454" s="5"/>
+    </row>
+    <row r="455">
+      <c r="M455" s="2"/>
+      <c r="N455" s="5"/>
+    </row>
+    <row r="456">
+      <c r="M456" s="2"/>
+      <c r="N456" s="5"/>
+    </row>
+    <row r="457">
+      <c r="M457" s="2"/>
+      <c r="N457" s="5"/>
+    </row>
+    <row r="458">
+      <c r="M458" s="2"/>
+      <c r="N458" s="5"/>
+    </row>
+    <row r="459">
+      <c r="M459" s="2"/>
+      <c r="N459" s="5"/>
+    </row>
+    <row r="460">
+      <c r="M460" s="2"/>
+      <c r="N460" s="5"/>
+    </row>
+    <row r="461">
+      <c r="M461" s="2"/>
+      <c r="N461" s="5"/>
+    </row>
+    <row r="462">
+      <c r="M462" s="2"/>
+      <c r="N462" s="5"/>
+    </row>
+    <row r="463">
+      <c r="M463" s="2"/>
+      <c r="N463" s="5"/>
+    </row>
+    <row r="464">
+      <c r="M464" s="2"/>
+      <c r="N464" s="5"/>
+    </row>
+    <row r="465">
+      <c r="M465" s="2"/>
+      <c r="N465" s="5"/>
+    </row>
+    <row r="466">
+      <c r="M466" s="2"/>
+      <c r="N466" s="5"/>
+    </row>
+    <row r="467">
+      <c r="M467" s="2"/>
+      <c r="N467" s="5"/>
+    </row>
+    <row r="468">
+      <c r="M468" s="2"/>
+      <c r="N468" s="5"/>
+    </row>
+    <row r="469">
+      <c r="M469" s="2"/>
+      <c r="N469" s="5"/>
+    </row>
+    <row r="470">
+      <c r="M470" s="2"/>
+      <c r="N470" s="5"/>
+    </row>
+    <row r="471">
+      <c r="M471" s="2"/>
+      <c r="N471" s="5"/>
+    </row>
+    <row r="472">
+      <c r="M472" s="2"/>
+      <c r="N472" s="5"/>
+    </row>
+    <row r="473">
+      <c r="M473" s="2"/>
+      <c r="N473" s="5"/>
+    </row>
+    <row r="474">
+      <c r="M474" s="2"/>
+      <c r="N474" s="5"/>
+    </row>
+    <row r="475">
+      <c r="M475" s="2"/>
+      <c r="N475" s="5"/>
+    </row>
+    <row r="476">
+      <c r="M476" s="2"/>
+      <c r="N476" s="5"/>
+    </row>
+    <row r="477">
+      <c r="M477" s="2"/>
+      <c r="N477" s="5"/>
+    </row>
+    <row r="478">
+      <c r="M478" s="2"/>
+      <c r="N478" s="5"/>
+    </row>
+    <row r="479">
+      <c r="M479" s="2"/>
+      <c r="N479" s="5"/>
+    </row>
+    <row r="480">
+      <c r="M480" s="2"/>
+      <c r="N480" s="5"/>
+    </row>
+    <row r="481">
+      <c r="M481" s="2"/>
+      <c r="N481" s="5"/>
+    </row>
+    <row r="482">
+      <c r="M482" s="2"/>
+      <c r="N482" s="5"/>
+    </row>
+    <row r="483">
+      <c r="M483" s="2"/>
+      <c r="N483" s="5"/>
+    </row>
+    <row r="484">
+      <c r="M484" s="2"/>
+      <c r="N484" s="5"/>
+    </row>
+    <row r="485">
+      <c r="M485" s="2"/>
+      <c r="N485" s="5"/>
+    </row>
+    <row r="486">
+      <c r="M486" s="2"/>
+      <c r="N486" s="5"/>
+    </row>
+    <row r="487">
+      <c r="M487" s="2"/>
+      <c r="N487" s="5"/>
+    </row>
+    <row r="488">
+      <c r="M488" s="2"/>
+      <c r="N488" s="5"/>
+    </row>
+    <row r="489">
+      <c r="M489" s="2"/>
+      <c r="N489" s="5"/>
+    </row>
+    <row r="490">
+      <c r="M490" s="2"/>
+      <c r="N490" s="5"/>
+    </row>
+    <row r="491">
+      <c r="M491" s="2"/>
+      <c r="N491" s="5"/>
+    </row>
+    <row r="492">
+      <c r="M492" s="2"/>
+      <c r="N492" s="5"/>
+    </row>
+    <row r="493">
+      <c r="M493" s="2"/>
+      <c r="N493" s="5"/>
+    </row>
+    <row r="494">
+      <c r="M494" s="2"/>
+      <c r="N494" s="5"/>
+    </row>
+    <row r="495">
+      <c r="M495" s="2"/>
+      <c r="N495" s="5"/>
+    </row>
+    <row r="496">
+      <c r="M496" s="2"/>
+      <c r="N496" s="5"/>
+    </row>
+    <row r="497">
+      <c r="M497" s="2"/>
+      <c r="N497" s="5"/>
+    </row>
+    <row r="498">
+      <c r="M498" s="2"/>
+      <c r="N498" s="5"/>
+    </row>
+    <row r="499">
+      <c r="M499" s="2"/>
+      <c r="N499" s="5"/>
+    </row>
+    <row r="500">
+      <c r="M500" s="2"/>
+      <c r="N500" s="5"/>
+    </row>
+    <row r="501">
+      <c r="M501" s="2"/>
+      <c r="N501" s="5"/>
+    </row>
+    <row r="502">
+      <c r="M502" s="2"/>
+      <c r="N502" s="5"/>
+    </row>
+    <row r="503">
+      <c r="M503" s="2"/>
+      <c r="N503" s="5"/>
+    </row>
+    <row r="504">
+      <c r="M504" s="2"/>
+      <c r="N504" s="5"/>
+    </row>
+    <row r="505">
+      <c r="M505" s="2"/>
+      <c r="N505" s="5"/>
+    </row>
+    <row r="506">
+      <c r="M506" s="2"/>
+      <c r="N506" s="5"/>
+    </row>
+    <row r="507">
+      <c r="M507" s="2"/>
+      <c r="N507" s="5"/>
+    </row>
+    <row r="508">
+      <c r="M508" s="2"/>
+      <c r="N508" s="5"/>
+    </row>
+    <row r="509">
+      <c r="M509" s="2"/>
+      <c r="N509" s="5"/>
+    </row>
+    <row r="510">
+      <c r="M510" s="2"/>
+      <c r="N510" s="5"/>
+    </row>
+    <row r="511">
+      <c r="M511" s="2"/>
+      <c r="N511" s="5"/>
+    </row>
+    <row r="512">
+      <c r="M512" s="2"/>
+      <c r="N512" s="5"/>
+    </row>
+    <row r="513">
+      <c r="M513" s="2"/>
+      <c r="N513" s="5"/>
+    </row>
+    <row r="514">
+      <c r="M514" s="2"/>
+      <c r="N514" s="5"/>
+    </row>
+    <row r="515">
+      <c r="M515" s="2"/>
+      <c r="N515" s="5"/>
+    </row>
+    <row r="516">
+      <c r="M516" s="2"/>
+      <c r="N516" s="5"/>
+    </row>
+    <row r="517">
+      <c r="M517" s="2"/>
+      <c r="N517" s="5"/>
+    </row>
+    <row r="518">
+      <c r="M518" s="2"/>
+      <c r="N518" s="5"/>
+    </row>
+    <row r="519">
+      <c r="M519" s="2"/>
+      <c r="N519" s="5"/>
+    </row>
+    <row r="520">
+      <c r="M520" s="2"/>
+      <c r="N520" s="5"/>
+    </row>
+    <row r="521">
+      <c r="M521" s="2"/>
+      <c r="N521" s="5"/>
+    </row>
+    <row r="522">
+      <c r="M522" s="2"/>
+      <c r="N522" s="5"/>
+    </row>
+    <row r="523">
+      <c r="M523" s="2"/>
+      <c r="N523" s="5"/>
+    </row>
+    <row r="524">
+      <c r="M524" s="2"/>
+      <c r="N524" s="5"/>
+    </row>
+    <row r="525">
+      <c r="M525" s="2"/>
+      <c r="N525" s="5"/>
+    </row>
+    <row r="526">
+      <c r="M526" s="2"/>
+      <c r="N526" s="5"/>
+    </row>
+    <row r="527">
+      <c r="M527" s="2"/>
+      <c r="N527" s="5"/>
+    </row>
+    <row r="528">
+      <c r="M528" s="2"/>
+      <c r="N528" s="5"/>
+    </row>
+    <row r="529">
+      <c r="M529" s="2"/>
+      <c r="N529" s="5"/>
+    </row>
+    <row r="530">
+      <c r="M530" s="2"/>
+      <c r="N530" s="5"/>
+    </row>
+    <row r="531">
+      <c r="M531" s="2"/>
+      <c r="N531" s="5"/>
+    </row>
+    <row r="532">
+      <c r="M532" s="2"/>
+      <c r="N532" s="5"/>
+    </row>
+    <row r="533">
+      <c r="M533" s="2"/>
+      <c r="N533" s="5"/>
+    </row>
+    <row r="534">
+      <c r="M534" s="2"/>
+      <c r="N534" s="5"/>
+    </row>
+    <row r="535">
+      <c r="M535" s="2"/>
+      <c r="N535" s="5"/>
+    </row>
+    <row r="536">
+      <c r="M536" s="2"/>
+      <c r="N536" s="5"/>
+    </row>
+    <row r="537">
+      <c r="M537" s="2"/>
+      <c r="N537" s="5"/>
+    </row>
+    <row r="538">
+      <c r="M538" s="2"/>
+      <c r="N538" s="5"/>
+    </row>
+    <row r="539">
+      <c r="M539" s="2"/>
+      <c r="N539" s="5"/>
+    </row>
+    <row r="540">
+      <c r="M540" s="2"/>
+      <c r="N540" s="5"/>
+    </row>
+    <row r="541">
+      <c r="M541" s="2"/>
+      <c r="N541" s="5"/>
+    </row>
+    <row r="542">
+      <c r="M542" s="2"/>
+      <c r="N542" s="5"/>
+    </row>
+    <row r="543">
+      <c r="M543" s="2"/>
+      <c r="N543" s="5"/>
+    </row>
+    <row r="544">
+      <c r="M544" s="2"/>
+      <c r="N544" s="5"/>
+    </row>
+    <row r="545">
+      <c r="M545" s="2"/>
+      <c r="N545" s="5"/>
+    </row>
+    <row r="546">
+      <c r="M546" s="2"/>
+      <c r="N546" s="5"/>
+    </row>
+    <row r="547">
+      <c r="M547" s="2"/>
+      <c r="N547" s="5"/>
+    </row>
+    <row r="548">
+      <c r="M548" s="2"/>
+      <c r="N548" s="5"/>
+    </row>
+    <row r="549">
+      <c r="M549" s="2"/>
+      <c r="N549" s="5"/>
+    </row>
+    <row r="550">
+      <c r="M550" s="2"/>
+      <c r="N550" s="5"/>
+    </row>
+    <row r="551">
+      <c r="M551" s="2"/>
+      <c r="N551" s="5"/>
+    </row>
+    <row r="552">
+      <c r="M552" s="2"/>
+      <c r="N552" s="5"/>
+    </row>
+    <row r="553">
+      <c r="M553" s="2"/>
+      <c r="N553" s="5"/>
+    </row>
+    <row r="554">
+      <c r="M554" s="2"/>
+      <c r="N554" s="5"/>
+    </row>
+    <row r="555">
+      <c r="M555" s="2"/>
+      <c r="N555" s="5"/>
+    </row>
+    <row r="556">
+      <c r="M556" s="2"/>
+      <c r="N556" s="5"/>
+    </row>
+    <row r="557">
+      <c r="M557" s="2"/>
+      <c r="N557" s="5"/>
+    </row>
+    <row r="558">
+      <c r="M558" s="2"/>
+      <c r="N558" s="5"/>
+    </row>
+    <row r="559">
+      <c r="M559" s="2"/>
+      <c r="N559" s="5"/>
+    </row>
+    <row r="560">
+      <c r="M560" s="2"/>
+      <c r="N560" s="5"/>
+    </row>
+    <row r="561">
+      <c r="M561" s="2"/>
+      <c r="N561" s="5"/>
+    </row>
+    <row r="562">
+      <c r="M562" s="2"/>
+      <c r="N562" s="5"/>
+    </row>
+    <row r="563">
+      <c r="M563" s="2"/>
+      <c r="N563" s="5"/>
+    </row>
+    <row r="564">
+      <c r="M564" s="2"/>
+      <c r="N564" s="5"/>
+    </row>
+    <row r="565">
+      <c r="M565" s="2"/>
+      <c r="N565" s="5"/>
+    </row>
+    <row r="566">
+      <c r="M566" s="2"/>
+      <c r="N566" s="5"/>
+    </row>
+    <row r="567">
+      <c r="M567" s="2"/>
+      <c r="N567" s="5"/>
+    </row>
+    <row r="568">
+      <c r="M568" s="2"/>
+      <c r="N568" s="5"/>
+    </row>
+    <row r="569">
+      <c r="M569" s="2"/>
+      <c r="N569" s="5"/>
+    </row>
+    <row r="570">
+      <c r="M570" s="2"/>
+      <c r="N570" s="5"/>
+    </row>
+    <row r="571">
+      <c r="M571" s="2"/>
+      <c r="N571" s="5"/>
+    </row>
+    <row r="572">
+      <c r="M572" s="2"/>
+      <c r="N572" s="5"/>
+    </row>
+    <row r="573">
+      <c r="M573" s="2"/>
+      <c r="N573" s="5"/>
+    </row>
+    <row r="574">
+      <c r="M574" s="2"/>
+      <c r="N574" s="5"/>
+    </row>
+    <row r="575">
+      <c r="M575" s="2"/>
+      <c r="N575" s="5"/>
+    </row>
+    <row r="576">
+      <c r="M576" s="2"/>
+      <c r="N576" s="5"/>
+    </row>
+    <row r="577">
+      <c r="M577" s="2"/>
+      <c r="N577" s="5"/>
+    </row>
+    <row r="578">
+      <c r="M578" s="2"/>
+      <c r="N578" s="5"/>
+    </row>
+    <row r="579">
+      <c r="M579" s="2"/>
+      <c r="N579" s="5"/>
+    </row>
+    <row r="580">
+      <c r="M580" s="2"/>
+      <c r="N580" s="5"/>
+    </row>
+    <row r="581">
+      <c r="M581" s="2"/>
+      <c r="N581" s="5"/>
+    </row>
+    <row r="582">
+      <c r="M582" s="2"/>
+      <c r="N582" s="5"/>
+    </row>
+    <row r="583">
+      <c r="M583" s="2"/>
+      <c r="N583" s="5"/>
+    </row>
+    <row r="584">
+      <c r="M584" s="2"/>
+      <c r="N584" s="5"/>
+    </row>
+    <row r="585">
+      <c r="M585" s="2"/>
+      <c r="N585" s="5"/>
+    </row>
+    <row r="586">
+      <c r="M586" s="2"/>
+      <c r="N586" s="5"/>
+    </row>
+    <row r="587">
+      <c r="M587" s="2"/>
+      <c r="N587" s="5"/>
+    </row>
+    <row r="588">
+      <c r="M588" s="2"/>
+      <c r="N588" s="5"/>
+    </row>
+    <row r="589">
+      <c r="M589" s="2"/>
+      <c r="N589" s="5"/>
+    </row>
+    <row r="590">
+      <c r="M590" s="2"/>
+      <c r="N590" s="5"/>
+    </row>
+    <row r="591">
+      <c r="M591" s="2"/>
+      <c r="N591" s="5"/>
+    </row>
+    <row r="592">
+      <c r="M592" s="2"/>
+      <c r="N592" s="5"/>
+    </row>
+    <row r="593">
+      <c r="M593" s="2"/>
+      <c r="N593" s="5"/>
+    </row>
+    <row r="594">
+      <c r="M594" s="2"/>
+      <c r="N594" s="5"/>
+    </row>
+    <row r="595">
+      <c r="M595" s="2"/>
+      <c r="N595" s="5"/>
+    </row>
+    <row r="596">
+      <c r="M596" s="2"/>
+      <c r="N596" s="5"/>
+    </row>
+    <row r="597">
+      <c r="M597" s="2"/>
+      <c r="N597" s="5"/>
+    </row>
+    <row r="598">
+      <c r="M598" s="2"/>
+      <c r="N598" s="5"/>
+    </row>
+    <row r="599">
+      <c r="M599" s="2"/>
+      <c r="N599" s="5"/>
+    </row>
+    <row r="600">
+      <c r="M600" s="2"/>
+      <c r="N600" s="5"/>
+    </row>
+    <row r="601">
+      <c r="M601" s="2"/>
+      <c r="N601" s="5"/>
+    </row>
+    <row r="602">
+      <c r="M602" s="2"/>
+      <c r="N602" s="5"/>
+    </row>
+    <row r="603">
+      <c r="M603" s="2"/>
+      <c r="N603" s="5"/>
+    </row>
+    <row r="604">
+      <c r="M604" s="2"/>
+      <c r="N604" s="5"/>
+    </row>
+    <row r="605">
+      <c r="M605" s="2"/>
+      <c r="N605" s="5"/>
+    </row>
+    <row r="606">
+      <c r="M606" s="2"/>
+      <c r="N606" s="5"/>
+    </row>
+    <row r="607">
+      <c r="M607" s="2"/>
+      <c r="N607" s="5"/>
+    </row>
+    <row r="608">
+      <c r="M608" s="2"/>
+      <c r="N608" s="5"/>
+    </row>
+    <row r="609">
+      <c r="M609" s="2"/>
+      <c r="N609" s="5"/>
+    </row>
+    <row r="610">
+      <c r="M610" s="2"/>
+      <c r="N610" s="5"/>
+    </row>
+    <row r="611">
+      <c r="M611" s="2"/>
+      <c r="N611" s="5"/>
+    </row>
+    <row r="612">
+      <c r="M612" s="2"/>
+      <c r="N612" s="5"/>
+    </row>
+    <row r="613">
+      <c r="M613" s="2"/>
+      <c r="N613" s="5"/>
+    </row>
+    <row r="614">
+      <c r="M614" s="2"/>
+      <c r="N614" s="5"/>
+    </row>
+    <row r="615">
+      <c r="M615" s="2"/>
+      <c r="N615" s="5"/>
+    </row>
+    <row r="616">
+      <c r="M616" s="2"/>
+      <c r="N616" s="5"/>
+    </row>
+    <row r="617">
+      <c r="M617" s="2"/>
+      <c r="N617" s="5"/>
+    </row>
+    <row r="618">
+      <c r="M618" s="2"/>
+      <c r="N618" s="5"/>
+    </row>
+    <row r="619">
+      <c r="M619" s="2"/>
+      <c r="N619" s="5"/>
+    </row>
+    <row r="620">
+      <c r="M620" s="2"/>
+      <c r="N620" s="5"/>
+    </row>
+    <row r="621">
+      <c r="M621" s="2"/>
+      <c r="N621" s="5"/>
+    </row>
+    <row r="622">
+      <c r="M622" s="2"/>
+      <c r="N622" s="5"/>
+    </row>
+    <row r="623">
+      <c r="M623" s="2"/>
+      <c r="N623" s="5"/>
+    </row>
+    <row r="624">
+      <c r="M624" s="2"/>
+      <c r="N624" s="5"/>
+    </row>
+    <row r="625">
+      <c r="M625" s="2"/>
+      <c r="N625" s="5"/>
+    </row>
+    <row r="626">
+      <c r="M626" s="2"/>
+      <c r="N626" s="5"/>
+    </row>
+    <row r="627">
+      <c r="M627" s="2"/>
+      <c r="N627" s="5"/>
+    </row>
+    <row r="628">
+      <c r="M628" s="2"/>
+      <c r="N628" s="5"/>
+    </row>
+    <row r="629">
+      <c r="M629" s="2"/>
+      <c r="N629" s="5"/>
+    </row>
+    <row r="630">
+      <c r="M630" s="2"/>
+      <c r="N630" s="5"/>
+    </row>
+    <row r="631">
+      <c r="M631" s="2"/>
+      <c r="N631" s="5"/>
+    </row>
+    <row r="632">
+      <c r="M632" s="2"/>
+      <c r="N632" s="5"/>
+    </row>
+    <row r="633">
+      <c r="M633" s="2"/>
+      <c r="N633" s="5"/>
+    </row>
+    <row r="634">
+      <c r="M634" s="2"/>
+      <c r="N634" s="5"/>
+    </row>
+    <row r="635">
+      <c r="M635" s="2"/>
+      <c r="N635" s="5"/>
+    </row>
+    <row r="636">
+      <c r="M636" s="2"/>
+      <c r="N636" s="5"/>
+    </row>
+    <row r="637">
+      <c r="M637" s="2"/>
+      <c r="N637" s="5"/>
+    </row>
+    <row r="638">
+      <c r="M638" s="2"/>
+      <c r="N638" s="5"/>
+    </row>
+    <row r="639">
+      <c r="M639" s="2"/>
+      <c r="N639" s="5"/>
+    </row>
+    <row r="640">
+      <c r="M640" s="2"/>
+      <c r="N640" s="5"/>
+    </row>
+    <row r="641">
+      <c r="M641" s="2"/>
+      <c r="N641" s="5"/>
+    </row>
+    <row r="642">
+      <c r="M642" s="2"/>
+      <c r="N642" s="5"/>
+    </row>
+    <row r="643">
+      <c r="M643" s="2"/>
+      <c r="N643" s="5"/>
+    </row>
+    <row r="644">
+      <c r="M644" s="2"/>
+      <c r="N644" s="5"/>
+    </row>
+    <row r="645">
+      <c r="M645" s="2"/>
+      <c r="N645" s="5"/>
+    </row>
+    <row r="646">
+      <c r="M646" s="2"/>
+      <c r="N646" s="5"/>
+    </row>
+    <row r="647">
+      <c r="M647" s="2"/>
+      <c r="N647" s="5"/>
+    </row>
+    <row r="648">
+      <c r="M648" s="2"/>
+      <c r="N648" s="5"/>
+    </row>
+    <row r="649">
+      <c r="M649" s="2"/>
+      <c r="N649" s="5"/>
+    </row>
+    <row r="650">
+      <c r="M650" s="2"/>
+      <c r="N650" s="5"/>
+    </row>
+    <row r="651">
+      <c r="M651" s="2"/>
+      <c r="N651" s="5"/>
+    </row>
+    <row r="652">
+      <c r="M652" s="2"/>
+      <c r="N652" s="5"/>
+    </row>
+    <row r="653">
+      <c r="M653" s="2"/>
+      <c r="N653" s="5"/>
+    </row>
+    <row r="654">
+      <c r="M654" s="2"/>
+      <c r="N654" s="5"/>
+    </row>
+    <row r="655">
+      <c r="M655" s="2"/>
+      <c r="N655" s="5"/>
+    </row>
+    <row r="656">
+      <c r="M656" s="2"/>
+      <c r="N656" s="5"/>
+    </row>
+    <row r="657">
+      <c r="M657" s="2"/>
+      <c r="N657" s="5"/>
+    </row>
+    <row r="658">
+      <c r="M658" s="2"/>
+      <c r="N658" s="5"/>
+    </row>
+    <row r="659">
+      <c r="M659" s="2"/>
+      <c r="N659" s="5"/>
+    </row>
+    <row r="660">
+      <c r="M660" s="2"/>
+      <c r="N660" s="5"/>
+    </row>
+    <row r="661">
+      <c r="M661" s="2"/>
+      <c r="N661" s="5"/>
+    </row>
+    <row r="662">
+      <c r="M662" s="2"/>
+      <c r="N662" s="5"/>
+    </row>
+    <row r="663">
+      <c r="M663" s="2"/>
+      <c r="N663" s="5"/>
+    </row>
+    <row r="664">
+      <c r="M664" s="2"/>
+      <c r="N664" s="5"/>
+    </row>
+    <row r="665">
+      <c r="M665" s="2"/>
+      <c r="N665" s="5"/>
+    </row>
+    <row r="666">
+      <c r="M666" s="2"/>
+      <c r="N666" s="5"/>
+    </row>
+    <row r="667">
+      <c r="M667" s="2"/>
+      <c r="N667" s="5"/>
+    </row>
+    <row r="668">
+      <c r="M668" s="2"/>
+      <c r="N668" s="5"/>
+    </row>
+    <row r="669">
+      <c r="M669" s="2"/>
+      <c r="N669" s="5"/>
+    </row>
+    <row r="670">
+      <c r="M670" s="2"/>
+      <c r="N670" s="5"/>
+    </row>
+    <row r="671">
+      <c r="M671" s="2"/>
+      <c r="N671" s="5"/>
+    </row>
+    <row r="672">
+      <c r="M672" s="2"/>
+      <c r="N672" s="5"/>
+    </row>
+    <row r="673">
+      <c r="M673" s="2"/>
+      <c r="N673" s="5"/>
+    </row>
+    <row r="674">
+      <c r="M674" s="2"/>
+      <c r="N674" s="5"/>
+    </row>
+    <row r="675">
+      <c r="M675" s="2"/>
+      <c r="N675" s="5"/>
+    </row>
+    <row r="676">
+      <c r="M676" s="2"/>
+      <c r="N676" s="5"/>
+    </row>
+    <row r="677">
+      <c r="M677" s="2"/>
+      <c r="N677" s="5"/>
+    </row>
+    <row r="678">
+      <c r="M678" s="2"/>
+      <c r="N678" s="5"/>
+    </row>
+    <row r="679">
+      <c r="M679" s="2"/>
+      <c r="N679" s="5"/>
+    </row>
+    <row r="680">
+      <c r="M680" s="2"/>
+      <c r="N680" s="5"/>
+    </row>
+    <row r="681">
+      <c r="M681" s="2"/>
+      <c r="N681" s="5"/>
+    </row>
+    <row r="682">
+      <c r="M682" s="2"/>
+      <c r="N682" s="5"/>
+    </row>
+    <row r="683">
+      <c r="M683" s="2"/>
+      <c r="N683" s="5"/>
+    </row>
+    <row r="684">
+      <c r="M684" s="2"/>
+      <c r="N684" s="5"/>
+    </row>
+    <row r="685">
+      <c r="M685" s="2"/>
+      <c r="N685" s="5"/>
+    </row>
+    <row r="686">
+      <c r="M686" s="2"/>
+      <c r="N686" s="5"/>
+    </row>
+    <row r="687">
+      <c r="M687" s="2"/>
+      <c r="N687" s="5"/>
+    </row>
+    <row r="688">
+      <c r="M688" s="2"/>
+      <c r="N688" s="5"/>
+    </row>
+    <row r="689">
+      <c r="M689" s="2"/>
+      <c r="N689" s="5"/>
+    </row>
+    <row r="690">
+      <c r="M690" s="2"/>
+      <c r="N690" s="5"/>
+    </row>
+    <row r="691">
+      <c r="M691" s="2"/>
+      <c r="N691" s="5"/>
+    </row>
+    <row r="692">
+      <c r="M692" s="2"/>
+      <c r="N692" s="5"/>
+    </row>
+    <row r="693">
+      <c r="M693" s="2"/>
+      <c r="N693" s="5"/>
+    </row>
+    <row r="694">
+      <c r="M694" s="2"/>
+      <c r="N694" s="5"/>
+    </row>
+    <row r="695">
+      <c r="M695" s="2"/>
+      <c r="N695" s="5"/>
+    </row>
+    <row r="696">
+      <c r="M696" s="2"/>
+      <c r="N696" s="5"/>
+    </row>
+    <row r="697">
+      <c r="M697" s="2"/>
+      <c r="N697" s="5"/>
+    </row>
+    <row r="698">
+      <c r="M698" s="2"/>
+      <c r="N698" s="5"/>
+    </row>
+    <row r="699">
+      <c r="M699" s="2"/>
+      <c r="N699" s="5"/>
+    </row>
+    <row r="700">
+      <c r="M700" s="2"/>
+      <c r="N700" s="5"/>
+    </row>
+    <row r="701">
+      <c r="M701" s="2"/>
+      <c r="N701" s="5"/>
+    </row>
+    <row r="702">
+      <c r="M702" s="2"/>
+      <c r="N702" s="5"/>
+    </row>
+    <row r="703">
+      <c r="M703" s="2"/>
+      <c r="N703" s="5"/>
+    </row>
+    <row r="704">
+      <c r="M704" s="2"/>
+      <c r="N704" s="5"/>
+    </row>
+    <row r="705">
+      <c r="M705" s="2"/>
+      <c r="N705" s="5"/>
+    </row>
+    <row r="706">
+      <c r="M706" s="2"/>
+      <c r="N706" s="5"/>
+    </row>
+    <row r="707">
+      <c r="M707" s="2"/>
+      <c r="N707" s="5"/>
+    </row>
+    <row r="708">
+      <c r="M708" s="2"/>
+      <c r="N708" s="5"/>
+    </row>
+    <row r="709">
+      <c r="M709" s="2"/>
+      <c r="N709" s="5"/>
+    </row>
+    <row r="710">
+      <c r="M710" s="2"/>
+      <c r="N710" s="5"/>
+    </row>
+    <row r="711">
+      <c r="M711" s="2"/>
+      <c r="N711" s="5"/>
+    </row>
+    <row r="712">
+      <c r="M712" s="2"/>
+      <c r="N712" s="5"/>
+    </row>
+    <row r="713">
+      <c r="M713" s="2"/>
+      <c r="N713" s="5"/>
+    </row>
+    <row r="714">
+      <c r="M714" s="2"/>
+      <c r="N714" s="5"/>
+    </row>
+    <row r="715">
+      <c r="M715" s="2"/>
+      <c r="N715" s="5"/>
+    </row>
+    <row r="716">
+      <c r="M716" s="2"/>
+      <c r="N716" s="5"/>
+    </row>
+    <row r="717">
+      <c r="M717" s="2"/>
+      <c r="N717" s="5"/>
+    </row>
+    <row r="718">
+      <c r="M718" s="2"/>
+      <c r="N718" s="5"/>
+    </row>
+    <row r="719">
+      <c r="M719" s="2"/>
+      <c r="N719" s="5"/>
+    </row>
+    <row r="720">
+      <c r="M720" s="2"/>
+      <c r="N720" s="5"/>
+    </row>
+    <row r="721">
+      <c r="M721" s="2"/>
+      <c r="N721" s="5"/>
+    </row>
+    <row r="722">
+      <c r="M722" s="2"/>
+      <c r="N722" s="5"/>
+    </row>
+    <row r="723">
+      <c r="M723" s="2"/>
+      <c r="N723" s="5"/>
+    </row>
+    <row r="724">
+      <c r="M724" s="2"/>
+      <c r="N724" s="5"/>
+    </row>
+    <row r="725">
+      <c r="M725" s="2"/>
+      <c r="N725" s="5"/>
+    </row>
+    <row r="726">
+      <c r="M726" s="2"/>
+      <c r="N726" s="5"/>
+    </row>
+    <row r="727">
+      <c r="M727" s="2"/>
+      <c r="N727" s="5"/>
+    </row>
+    <row r="728">
+      <c r="M728" s="2"/>
+      <c r="N728" s="5"/>
+    </row>
+    <row r="729">
+      <c r="M729" s="2"/>
+      <c r="N729" s="5"/>
+    </row>
+    <row r="730">
+      <c r="M730" s="2"/>
+      <c r="N730" s="5"/>
+    </row>
+    <row r="731">
+      <c r="M731" s="2"/>
+      <c r="N731" s="5"/>
+    </row>
+    <row r="732">
+      <c r="M732" s="2"/>
+      <c r="N732" s="5"/>
+    </row>
+    <row r="733">
+      <c r="M733" s="2"/>
+      <c r="N733" s="5"/>
+    </row>
+    <row r="734">
+      <c r="M734" s="2"/>
+      <c r="N734" s="5"/>
+    </row>
+    <row r="735">
+      <c r="M735" s="2"/>
+      <c r="N735" s="5"/>
+    </row>
+    <row r="736">
+      <c r="M736" s="2"/>
+      <c r="N736" s="5"/>
+    </row>
+    <row r="737">
+      <c r="M737" s="2"/>
+      <c r="N737" s="5"/>
+    </row>
+    <row r="738">
+      <c r="M738" s="2"/>
+      <c r="N738" s="5"/>
+    </row>
+    <row r="739">
+      <c r="M739" s="2"/>
+      <c r="N739" s="5"/>
+    </row>
+    <row r="740">
+      <c r="M740" s="2"/>
+      <c r="N740" s="5"/>
+    </row>
+    <row r="741">
+      <c r="M741" s="2"/>
+      <c r="N741" s="5"/>
+    </row>
+    <row r="742">
+      <c r="M742" s="2"/>
+      <c r="N742" s="5"/>
+    </row>
+    <row r="743">
+      <c r="M743" s="2"/>
+      <c r="N743" s="5"/>
+    </row>
+    <row r="744">
+      <c r="M744" s="2"/>
+      <c r="N744" s="5"/>
+    </row>
+    <row r="745">
+      <c r="M745" s="2"/>
+      <c r="N745" s="5"/>
+    </row>
+    <row r="746">
+      <c r="M746" s="2"/>
+      <c r="N746" s="5"/>
+    </row>
+    <row r="747">
+      <c r="M747" s="2"/>
+      <c r="N747" s="5"/>
+    </row>
+    <row r="748">
+      <c r="M748" s="2"/>
+      <c r="N748" s="5"/>
+    </row>
+    <row r="749">
+      <c r="M749" s="2"/>
+      <c r="N749" s="5"/>
+    </row>
+    <row r="750">
+      <c r="M750" s="2"/>
+      <c r="N750" s="5"/>
+    </row>
+    <row r="751">
+      <c r="M751" s="2"/>
+      <c r="N751" s="5"/>
+    </row>
+    <row r="752">
+      <c r="M752" s="2"/>
+      <c r="N752" s="5"/>
+    </row>
+    <row r="753">
+      <c r="M753" s="2"/>
+      <c r="N753" s="5"/>
+    </row>
+    <row r="754">
+      <c r="M754" s="2"/>
+      <c r="N754" s="5"/>
+    </row>
+    <row r="755">
+      <c r="M755" s="2"/>
+      <c r="N755" s="5"/>
+    </row>
+    <row r="756">
+      <c r="M756" s="2"/>
+      <c r="N756" s="5"/>
+    </row>
+    <row r="757">
+      <c r="M757" s="2"/>
+      <c r="N757" s="5"/>
+    </row>
+    <row r="758">
+      <c r="M758" s="2"/>
+      <c r="N758" s="5"/>
+    </row>
+    <row r="759">
+      <c r="M759" s="2"/>
+      <c r="N759" s="5"/>
+    </row>
+    <row r="760">
+      <c r="M760" s="2"/>
+      <c r="N760" s="5"/>
+    </row>
+    <row r="761">
+      <c r="M761" s="2"/>
+      <c r="N761" s="5"/>
+    </row>
+    <row r="762">
+      <c r="M762" s="2"/>
+      <c r="N762" s="5"/>
+    </row>
+    <row r="763">
+      <c r="M763" s="2"/>
+      <c r="N763" s="5"/>
+    </row>
+    <row r="764">
+      <c r="M764" s="2"/>
+      <c r="N764" s="5"/>
+    </row>
+    <row r="765">
+      <c r="M765" s="2"/>
+      <c r="N765" s="5"/>
+    </row>
+    <row r="766">
+      <c r="M766" s="2"/>
+      <c r="N766" s="5"/>
+    </row>
+    <row r="767">
+      <c r="M767" s="2"/>
+      <c r="N767" s="5"/>
+    </row>
+    <row r="768">
+      <c r="M768" s="2"/>
+      <c r="N768" s="5"/>
+    </row>
+    <row r="769">
+      <c r="M769" s="2"/>
+      <c r="N769" s="5"/>
+    </row>
+    <row r="770">
+      <c r="M770" s="2"/>
+      <c r="N770" s="5"/>
+    </row>
+    <row r="771">
+      <c r="M771" s="2"/>
+      <c r="N771" s="5"/>
+    </row>
+    <row r="772">
+      <c r="M772" s="2"/>
+      <c r="N772" s="5"/>
+    </row>
+    <row r="773">
+      <c r="M773" s="2"/>
+      <c r="N773" s="5"/>
+    </row>
+    <row r="774">
+      <c r="M774" s="2"/>
+      <c r="N774" s="5"/>
+    </row>
+    <row r="775">
+      <c r="M775" s="2"/>
+      <c r="N775" s="5"/>
+    </row>
+    <row r="776">
+      <c r="M776" s="2"/>
+      <c r="N776" s="5"/>
+    </row>
+    <row r="777">
+      <c r="M777" s="2"/>
+      <c r="N777" s="5"/>
+    </row>
+    <row r="778">
+      <c r="M778" s="2"/>
+      <c r="N778" s="5"/>
+    </row>
+    <row r="779">
+      <c r="M779" s="2"/>
+      <c r="N779" s="5"/>
+    </row>
+    <row r="780">
+      <c r="M780" s="2"/>
+      <c r="N780" s="5"/>
+    </row>
+    <row r="781">
+      <c r="M781" s="2"/>
+      <c r="N781" s="5"/>
+    </row>
+    <row r="782">
+      <c r="M782" s="2"/>
+      <c r="N782" s="5"/>
+    </row>
+    <row r="783">
+      <c r="M783" s="2"/>
+      <c r="N783" s="5"/>
+    </row>
+    <row r="784">
+      <c r="M784" s="2"/>
+      <c r="N784" s="5"/>
+    </row>
+    <row r="785">
+      <c r="M785" s="2"/>
+      <c r="N785" s="5"/>
+    </row>
+    <row r="786">
+      <c r="M786" s="2"/>
+      <c r="N786" s="5"/>
+    </row>
+    <row r="787">
+      <c r="M787" s="2"/>
+      <c r="N787" s="5"/>
+    </row>
+    <row r="788">
+      <c r="M788" s="2"/>
+      <c r="N788" s="5"/>
+    </row>
+    <row r="789">
+      <c r="M789" s="2"/>
+      <c r="N789" s="5"/>
+    </row>
+    <row r="790">
+      <c r="M790" s="2"/>
+      <c r="N790" s="5"/>
+    </row>
+    <row r="791">
+      <c r="M791" s="2"/>
+      <c r="N791" s="5"/>
+    </row>
+    <row r="792">
+      <c r="M792" s="2"/>
+      <c r="N792" s="5"/>
+    </row>
+    <row r="793">
+      <c r="M793" s="2"/>
+      <c r="N793" s="5"/>
+    </row>
+    <row r="794">
+      <c r="M794" s="2"/>
+      <c r="N794" s="5"/>
+    </row>
+    <row r="795">
+      <c r="M795" s="2"/>
+      <c r="N795" s="5"/>
+    </row>
+    <row r="796">
+      <c r="M796" s="2"/>
+      <c r="N796" s="5"/>
+    </row>
+    <row r="797">
+      <c r="M797" s="2"/>
+      <c r="N797" s="5"/>
+    </row>
+    <row r="798">
+      <c r="M798" s="2"/>
+      <c r="N798" s="5"/>
+    </row>
+    <row r="799">
+      <c r="M799" s="2"/>
+      <c r="N799" s="5"/>
+    </row>
+    <row r="800">
+      <c r="M800" s="2"/>
+      <c r="N800" s="5"/>
+    </row>
+    <row r="801">
+      <c r="M801" s="2"/>
+      <c r="N801" s="5"/>
+    </row>
+    <row r="802">
+      <c r="M802" s="2"/>
+      <c r="N802" s="5"/>
+    </row>
+    <row r="803">
+      <c r="M803" s="2"/>
+      <c r="N803" s="5"/>
+    </row>
+    <row r="804">
+      <c r="M804" s="2"/>
+      <c r="N804" s="5"/>
+    </row>
+    <row r="805">
+      <c r="M805" s="2"/>
+      <c r="N805" s="5"/>
+    </row>
+    <row r="806">
+      <c r="M806" s="2"/>
+      <c r="N806" s="5"/>
+    </row>
+    <row r="807">
+      <c r="M807" s="2"/>
+      <c r="N807" s="5"/>
+    </row>
+    <row r="808">
+      <c r="M808" s="2"/>
+      <c r="N808" s="5"/>
+    </row>
+    <row r="809">
+      <c r="M809" s="2"/>
+      <c r="N809" s="5"/>
+    </row>
+    <row r="810">
+      <c r="M810" s="2"/>
+      <c r="N810" s="5"/>
+    </row>
+    <row r="811">
+      <c r="M811" s="2"/>
+      <c r="N811" s="5"/>
+    </row>
+    <row r="812">
+      <c r="M812" s="2"/>
+      <c r="N812" s="5"/>
+    </row>
+    <row r="813">
+      <c r="M813" s="2"/>
+      <c r="N813" s="5"/>
+    </row>
+    <row r="814">
+      <c r="M814" s="2"/>
+      <c r="N814" s="5"/>
+    </row>
+    <row r="815">
+      <c r="M815" s="2"/>
+      <c r="N815" s="5"/>
+    </row>
+    <row r="816">
+      <c r="M816" s="2"/>
+      <c r="N816" s="5"/>
+    </row>
+    <row r="817">
+      <c r="M817" s="2"/>
+      <c r="N817" s="5"/>
+    </row>
+    <row r="818">
+      <c r="M818" s="2"/>
+      <c r="N818" s="5"/>
+    </row>
+    <row r="819">
+      <c r="M819" s="2"/>
+      <c r="N819" s="5"/>
+    </row>
+    <row r="820">
+      <c r="M820" s="2"/>
+      <c r="N820" s="5"/>
+    </row>
+    <row r="821">
+      <c r="M821" s="2"/>
+      <c r="N821" s="5"/>
+    </row>
+    <row r="822">
+      <c r="M822" s="2"/>
+      <c r="N822" s="5"/>
+    </row>
+    <row r="823">
+      <c r="M823" s="2"/>
+      <c r="N823" s="5"/>
+    </row>
+    <row r="824">
+      <c r="M824" s="2"/>
+      <c r="N824" s="5"/>
+    </row>
+    <row r="825">
+      <c r="M825" s="2"/>
+      <c r="N825" s="5"/>
+    </row>
+    <row r="826">
+      <c r="M826" s="2"/>
+      <c r="N826" s="5"/>
+    </row>
+    <row r="827">
+      <c r="M827" s="2"/>
+      <c r="N827" s="5"/>
+    </row>
+    <row r="828">
+      <c r="M828" s="2"/>
+      <c r="N828" s="5"/>
+    </row>
+    <row r="829">
+      <c r="M829" s="2"/>
+      <c r="N829" s="5"/>
+    </row>
+    <row r="830">
+      <c r="M830" s="2"/>
+      <c r="N830" s="5"/>
+    </row>
+    <row r="831">
+      <c r="M831" s="2"/>
+      <c r="N831" s="5"/>
+    </row>
+    <row r="832">
+      <c r="M832" s="2"/>
+      <c r="N832" s="5"/>
+    </row>
+    <row r="833">
+      <c r="M833" s="2"/>
+      <c r="N833" s="5"/>
+    </row>
+    <row r="834">
+      <c r="M834" s="2"/>
+      <c r="N834" s="5"/>
+    </row>
+    <row r="835">
+      <c r="M835" s="2"/>
+      <c r="N835" s="5"/>
+    </row>
+    <row r="836">
+      <c r="M836" s="2"/>
+      <c r="N836" s="5"/>
+    </row>
+    <row r="837">
+      <c r="M837" s="2"/>
+      <c r="N837" s="5"/>
+    </row>
+    <row r="838">
+      <c r="M838" s="2"/>
+      <c r="N838" s="5"/>
+    </row>
+    <row r="839">
+      <c r="M839" s="2"/>
+      <c r="N839" s="5"/>
+    </row>
+    <row r="840">
+      <c r="M840" s="2"/>
+      <c r="N840" s="5"/>
+    </row>
+    <row r="841">
+      <c r="M841" s="2"/>
+      <c r="N841" s="5"/>
+    </row>
+    <row r="842">
+      <c r="M842" s="2"/>
+      <c r="N842" s="5"/>
+    </row>
+    <row r="843">
+      <c r="M843" s="2"/>
+      <c r="N843" s="5"/>
+    </row>
+    <row r="844">
+      <c r="M844" s="2"/>
+      <c r="N844" s="5"/>
+    </row>
+    <row r="845">
+      <c r="M845" s="2"/>
+      <c r="N845" s="5"/>
+    </row>
+    <row r="846">
+      <c r="M846" s="2"/>
+      <c r="N846" s="5"/>
+    </row>
+    <row r="847">
+      <c r="M847" s="2"/>
+      <c r="N847" s="5"/>
+    </row>
+    <row r="848">
+      <c r="M848" s="2"/>
+      <c r="N848" s="5"/>
+    </row>
+    <row r="849">
+      <c r="M849" s="2"/>
+      <c r="N849" s="5"/>
+    </row>
+    <row r="850">
+      <c r="M850" s="2"/>
+      <c r="N850" s="5"/>
+    </row>
+    <row r="851">
+      <c r="M851" s="2"/>
+      <c r="N851" s="5"/>
+    </row>
+    <row r="852">
+      <c r="M852" s="2"/>
+      <c r="N852" s="5"/>
+    </row>
+    <row r="853">
+      <c r="M853" s="2"/>
+      <c r="N853" s="5"/>
+    </row>
+    <row r="854">
+      <c r="M854" s="2"/>
+      <c r="N854" s="5"/>
+    </row>
+    <row r="855">
+      <c r="M855" s="2"/>
+      <c r="N855" s="5"/>
+    </row>
+    <row r="856">
+      <c r="M856" s="2"/>
+      <c r="N856" s="5"/>
+    </row>
+    <row r="857">
+      <c r="M857" s="2"/>
+      <c r="N857" s="5"/>
+    </row>
+    <row r="858">
+      <c r="M858" s="2"/>
+      <c r="N858" s="5"/>
+    </row>
+    <row r="859">
+      <c r="M859" s="2"/>
+      <c r="N859" s="5"/>
+    </row>
+    <row r="860">
+      <c r="M860" s="2"/>
+      <c r="N860" s="5"/>
+    </row>
+    <row r="861">
+      <c r="M861" s="2"/>
+      <c r="N861" s="5"/>
+    </row>
+    <row r="862">
+      <c r="M862" s="2"/>
+      <c r="N862" s="5"/>
+    </row>
+    <row r="863">
+      <c r="M863" s="2"/>
+      <c r="N863" s="5"/>
+    </row>
+    <row r="864">
+      <c r="M864" s="2"/>
+      <c r="N864" s="5"/>
+    </row>
+    <row r="865">
+      <c r="M865" s="2"/>
+      <c r="N865" s="5"/>
+    </row>
+    <row r="866">
+      <c r="M866" s="2"/>
+      <c r="N866" s="5"/>
+    </row>
+    <row r="867">
+      <c r="M867" s="2"/>
+      <c r="N867" s="5"/>
+    </row>
+    <row r="868">
+      <c r="M868" s="2"/>
+      <c r="N868" s="5"/>
+    </row>
+    <row r="869">
+      <c r="M869" s="2"/>
+      <c r="N869" s="5"/>
+    </row>
+    <row r="870">
+      <c r="M870" s="2"/>
+      <c r="N870" s="5"/>
+    </row>
+    <row r="871">
+      <c r="M871" s="2"/>
+      <c r="N871" s="5"/>
+    </row>
+    <row r="872">
+      <c r="M872" s="2"/>
+      <c r="N872" s="5"/>
+    </row>
+    <row r="873">
+      <c r="M873" s="2"/>
+      <c r="N873" s="5"/>
+    </row>
+    <row r="874">
+      <c r="M874" s="2"/>
+      <c r="N874" s="5"/>
+    </row>
+    <row r="875">
+      <c r="M875" s="2"/>
+      <c r="N875" s="5"/>
+    </row>
+    <row r="876">
+      <c r="M876" s="2"/>
+      <c r="N876" s="5"/>
+    </row>
+    <row r="877">
+      <c r="M877" s="2"/>
+      <c r="N877" s="5"/>
+    </row>
+    <row r="878">
+      <c r="M878" s="2"/>
+      <c r="N878" s="5"/>
+    </row>
+    <row r="879">
+      <c r="M879" s="2"/>
+      <c r="N879" s="5"/>
+    </row>
+    <row r="880">
+      <c r="M880" s="2"/>
+      <c r="N880" s="5"/>
+    </row>
+    <row r="881">
+      <c r="M881" s="2"/>
+      <c r="N881" s="5"/>
+    </row>
+    <row r="882">
+      <c r="M882" s="2"/>
+      <c r="N882" s="5"/>
+    </row>
+    <row r="883">
+      <c r="M883" s="2"/>
+      <c r="N883" s="5"/>
+    </row>
+    <row r="884">
+      <c r="M884" s="2"/>
+      <c r="N884" s="5"/>
+    </row>
+    <row r="885">
+      <c r="M885" s="2"/>
+      <c r="N885" s="5"/>
+    </row>
+    <row r="886">
+      <c r="M886" s="2"/>
+      <c r="N886" s="5"/>
+    </row>
+    <row r="887">
+      <c r="M887" s="2"/>
+      <c r="N887" s="5"/>
+    </row>
+    <row r="888">
+      <c r="M888" s="2"/>
+      <c r="N888" s="5"/>
+    </row>
+    <row r="889">
+      <c r="M889" s="2"/>
+      <c r="N889" s="5"/>
+    </row>
+    <row r="890">
+      <c r="M890" s="2"/>
+      <c r="N890" s="5"/>
+    </row>
+    <row r="891">
+      <c r="M891" s="2"/>
+      <c r="N891" s="5"/>
+    </row>
+    <row r="892">
+      <c r="M892" s="2"/>
+      <c r="N892" s="5"/>
+    </row>
+    <row r="893">
+      <c r="M893" s="2"/>
+      <c r="N893" s="5"/>
+    </row>
+    <row r="894">
+      <c r="M894" s="2"/>
+      <c r="N894" s="5"/>
+    </row>
+    <row r="895">
+      <c r="M895" s="2"/>
+      <c r="N895" s="5"/>
+    </row>
+    <row r="896">
+      <c r="M896" s="2"/>
+      <c r="N896" s="5"/>
+    </row>
+    <row r="897">
+      <c r="M897" s="2"/>
+      <c r="N897" s="5"/>
+    </row>
+    <row r="898">
+      <c r="M898" s="2"/>
+      <c r="N898" s="5"/>
+    </row>
+    <row r="899">
+      <c r="M899" s="2"/>
+      <c r="N899" s="5"/>
+    </row>
+    <row r="900">
+      <c r="M900" s="2"/>
+      <c r="N900" s="5"/>
+    </row>
+    <row r="901">
+      <c r="M901" s="2"/>
+      <c r="N901" s="5"/>
+    </row>
+    <row r="902">
+      <c r="M902" s="2"/>
+      <c r="N902" s="5"/>
+    </row>
+    <row r="903">
+      <c r="M903" s="2"/>
+      <c r="N903" s="5"/>
+    </row>
+    <row r="904">
+      <c r="M904" s="2"/>
+      <c r="N904" s="5"/>
+    </row>
+    <row r="905">
+      <c r="M905" s="2"/>
+      <c r="N905" s="5"/>
+    </row>
+    <row r="906">
+      <c r="M906" s="2"/>
+      <c r="N906" s="5"/>
+    </row>
+    <row r="907">
+      <c r="M907" s="2"/>
+      <c r="N907" s="5"/>
+    </row>
+    <row r="908">
+      <c r="M908" s="2"/>
+      <c r="N908" s="5"/>
+    </row>
+    <row r="909">
+      <c r="M909" s="2"/>
+      <c r="N909" s="5"/>
+    </row>
+    <row r="910">
+      <c r="M910" s="2"/>
+      <c r="N910" s="5"/>
+    </row>
+    <row r="911">
+      <c r="M911" s="2"/>
+      <c r="N911" s="5"/>
+    </row>
+    <row r="912">
+      <c r="M912" s="2"/>
+      <c r="N912" s="5"/>
+    </row>
+    <row r="913">
+      <c r="M913" s="2"/>
+      <c r="N913" s="5"/>
+    </row>
+    <row r="914">
+      <c r="M914" s="2"/>
+      <c r="N914" s="5"/>
+    </row>
+    <row r="915">
+      <c r="M915" s="2"/>
+      <c r="N915" s="5"/>
+    </row>
+    <row r="916">
+      <c r="M916" s="2"/>
+      <c r="N916" s="5"/>
+    </row>
+    <row r="917">
+      <c r="M917" s="2"/>
+      <c r="N917" s="5"/>
+    </row>
+    <row r="918">
+      <c r="M918" s="2"/>
+      <c r="N918" s="5"/>
+    </row>
+    <row r="919">
+      <c r="M919" s="2"/>
+      <c r="N919" s="5"/>
+    </row>
+    <row r="920">
+      <c r="M920" s="2"/>
+      <c r="N920" s="5"/>
+    </row>
+    <row r="921">
+      <c r="M921" s="2"/>
+      <c r="N921" s="5"/>
+    </row>
+    <row r="922">
+      <c r="M922" s="2"/>
+      <c r="N922" s="5"/>
+    </row>
+    <row r="923">
+      <c r="M923" s="2"/>
+      <c r="N923" s="5"/>
+    </row>
+    <row r="924">
+      <c r="M924" s="2"/>
+      <c r="N924" s="5"/>
+    </row>
+    <row r="925">
+      <c r="M925" s="2"/>
+      <c r="N925" s="5"/>
+    </row>
+    <row r="926">
+      <c r="M926" s="2"/>
+      <c r="N926" s="5"/>
+    </row>
+    <row r="927">
+      <c r="M927" s="2"/>
+      <c r="N927" s="5"/>
+    </row>
+    <row r="928">
+      <c r="M928" s="2"/>
+      <c r="N928" s="5"/>
+    </row>
+    <row r="929">
+      <c r="M929" s="2"/>
+      <c r="N929" s="5"/>
+    </row>
+    <row r="930">
+      <c r="M930" s="2"/>
+      <c r="N930" s="5"/>
+    </row>
+    <row r="931">
+      <c r="M931" s="2"/>
+      <c r="N931" s="5"/>
+    </row>
+    <row r="932">
+      <c r="M932" s="2"/>
+      <c r="N932" s="5"/>
+    </row>
+    <row r="933">
+      <c r="M933" s="2"/>
+      <c r="N933" s="5"/>
+    </row>
+    <row r="934">
+      <c r="M934" s="2"/>
+      <c r="N934" s="5"/>
+    </row>
+    <row r="935">
+      <c r="M935" s="2"/>
+      <c r="N935" s="5"/>
+    </row>
+    <row r="936">
+      <c r="M936" s="2"/>
+      <c r="N936" s="5"/>
+    </row>
+    <row r="937">
+      <c r="M937" s="2"/>
+      <c r="N937" s="5"/>
+    </row>
+    <row r="938">
+      <c r="M938" s="2"/>
+      <c r="N938" s="5"/>
+    </row>
+    <row r="939">
+      <c r="M939" s="2"/>
+      <c r="N939" s="5"/>
+    </row>
+    <row r="940">
+      <c r="M940" s="2"/>
+      <c r="N940" s="5"/>
+    </row>
+    <row r="941">
+      <c r="M941" s="2"/>
+      <c r="N941" s="5"/>
+    </row>
+    <row r="942">
+      <c r="M942" s="2"/>
+      <c r="N942" s="5"/>
+    </row>
+    <row r="943">
+      <c r="M943" s="2"/>
+      <c r="N943" s="5"/>
+    </row>
+    <row r="944">
+      <c r="M944" s="2"/>
+      <c r="N944" s="5"/>
+    </row>
+    <row r="945">
+      <c r="M945" s="2"/>
+      <c r="N945" s="5"/>
+    </row>
+    <row r="946">
+      <c r="M946" s="2"/>
+      <c r="N946" s="5"/>
+    </row>
+    <row r="947">
+      <c r="M947" s="2"/>
+      <c r="N947" s="5"/>
+    </row>
+    <row r="948">
+      <c r="M948" s="2"/>
+      <c r="N948" s="5"/>
+    </row>
+    <row r="949">
+      <c r="M949" s="2"/>
+      <c r="N949" s="5"/>
+    </row>
+    <row r="950">
+      <c r="M950" s="2"/>
+      <c r="N950" s="5"/>
+    </row>
+    <row r="951">
+      <c r="M951" s="2"/>
+      <c r="N951" s="5"/>
+    </row>
+    <row r="952">
+      <c r="M952" s="2"/>
+      <c r="N952" s="5"/>
+    </row>
+    <row r="953">
+      <c r="M953" s="2"/>
+      <c r="N953" s="5"/>
+    </row>
+    <row r="954">
+      <c r="M954" s="2"/>
+      <c r="N954" s="5"/>
+    </row>
+    <row r="955">
+      <c r="M955" s="2"/>
+      <c r="N955" s="5"/>
+    </row>
+    <row r="956">
+      <c r="M956" s="2"/>
+      <c r="N956" s="5"/>
+    </row>
+    <row r="957">
+      <c r="M957" s="2"/>
+      <c r="N957" s="5"/>
+    </row>
+    <row r="958">
+      <c r="M958" s="2"/>
+      <c r="N958" s="5"/>
+    </row>
+    <row r="959">
+      <c r="M959" s="2"/>
+      <c r="N959" s="5"/>
+    </row>
+    <row r="960">
+      <c r="M960" s="2"/>
+      <c r="N960" s="5"/>
+    </row>
+    <row r="961">
+      <c r="M961" s="2"/>
+      <c r="N961" s="5"/>
+    </row>
+    <row r="962">
+      <c r="M962" s="2"/>
+      <c r="N962" s="5"/>
+    </row>
+    <row r="963">
+      <c r="M963" s="2"/>
+      <c r="N963" s="5"/>
+    </row>
+    <row r="964">
+      <c r="M964" s="2"/>
+      <c r="N964" s="5"/>
+    </row>
+    <row r="965">
+      <c r="M965" s="2"/>
+      <c r="N965" s="5"/>
+    </row>
+    <row r="966">
+      <c r="M966" s="2"/>
+      <c r="N966" s="5"/>
+    </row>
+    <row r="967">
+      <c r="M967" s="2"/>
+      <c r="N967" s="5"/>
+    </row>
+    <row r="968">
+      <c r="M968" s="2"/>
+      <c r="N968" s="5"/>
+    </row>
+    <row r="969">
+      <c r="M969" s="2"/>
+      <c r="N969" s="5"/>
+    </row>
+    <row r="970">
+      <c r="M970" s="2"/>
+      <c r="N970" s="5"/>
+    </row>
+    <row r="971">
+      <c r="M971" s="2"/>
+      <c r="N971" s="5"/>
+    </row>
+    <row r="972">
+      <c r="M972" s="2"/>
+      <c r="N972" s="5"/>
+    </row>
+    <row r="973">
+      <c r="M973" s="2"/>
+      <c r="N973" s="5"/>
+    </row>
+    <row r="974">
+      <c r="M974" s="2"/>
+      <c r="N974" s="5"/>
+    </row>
+    <row r="975">
+      <c r="M975" s="2"/>
+      <c r="N975" s="5"/>
+    </row>
+    <row r="976">
+      <c r="M976" s="2"/>
+      <c r="N976" s="5"/>
+    </row>
+    <row r="977">
+      <c r="M977" s="2"/>
+      <c r="N977" s="5"/>
+    </row>
+    <row r="978">
+      <c r="M978" s="2"/>
+      <c r="N978" s="5"/>
+    </row>
+    <row r="979">
+      <c r="M979" s="2"/>
+      <c r="N979" s="5"/>
+    </row>
+    <row r="980">
+      <c r="M980" s="2"/>
+      <c r="N980" s="5"/>
+    </row>
+    <row r="981">
+      <c r="M981" s="2"/>
+      <c r="N981" s="5"/>
+    </row>
+    <row r="982">
+      <c r="M982" s="2"/>
+      <c r="N982" s="5"/>
+    </row>
+    <row r="983">
+      <c r="M983" s="2"/>
+      <c r="N983" s="5"/>
+    </row>
+    <row r="984">
+      <c r="M984" s="2"/>
+      <c r="N984" s="5"/>
+    </row>
+    <row r="985">
+      <c r="M985" s="2"/>
+      <c r="N985" s="5"/>
+    </row>
+    <row r="986">
+      <c r="M986" s="2"/>
+      <c r="N986" s="5"/>
+    </row>
+    <row r="987">
+      <c r="M987" s="2"/>
+      <c r="N987" s="5"/>
+    </row>
+    <row r="988">
+      <c r="M988" s="2"/>
+      <c r="N988" s="5"/>
+    </row>
+    <row r="989">
+      <c r="M989" s="2"/>
+      <c r="N989" s="5"/>
+    </row>
+    <row r="990">
+      <c r="M990" s="2"/>
+      <c r="N990" s="5"/>
+    </row>
+    <row r="991">
+      <c r="M991" s="2"/>
+      <c r="N991" s="5"/>
+    </row>
+    <row r="992">
+      <c r="M992" s="2"/>
+      <c r="N992" s="5"/>
+    </row>
+    <row r="993">
+      <c r="M993" s="2"/>
+      <c r="N993" s="5"/>
+    </row>
+    <row r="994">
+      <c r="M994" s="2"/>
+      <c r="N994" s="5"/>
+    </row>
+    <row r="995">
+      <c r="M995" s="2"/>
+      <c r="N995" s="5"/>
+    </row>
+    <row r="996">
+      <c r="M996" s="2"/>
+      <c r="N996" s="5"/>
+    </row>
+    <row r="997">
+      <c r="M997" s="2"/>
+      <c r="N997" s="5"/>
+    </row>
+    <row r="998">
+      <c r="M998" s="2"/>
+      <c r="N998" s="5"/>
+    </row>
+    <row r="999">
+      <c r="M999" s="2"/>
+      <c r="N999" s="5"/>
+    </row>
+    <row r="1000">
+      <c r="M1000" s="2"/>
+      <c r="N1000" s="5"/>
+    </row>
+    <row r="1001">
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="5"/>
+    </row>
+    <row r="1002">
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="5"/>
+    </row>
+    <row r="1003">
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="5"/>
+    </row>
+    <row r="1004">
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="5"/>
+    </row>
+    <row r="1005">
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="5"/>
+    </row>
+    <row r="1006">
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="5"/>
+    </row>
+    <row r="1007">
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="5"/>
+    </row>
+    <row r="1008">
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="5"/>
+    </row>
+    <row r="1009">
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="5"/>
+    </row>
+    <row r="1010">
+      <c r="M1010" s="2"/>
+      <c r="N1010" s="5"/>
+    </row>
+    <row r="1011">
+      <c r="M1011" s="2"/>
+      <c r="N1011" s="5"/>
+    </row>
+    <row r="1012">
+      <c r="M1012" s="2"/>
+      <c r="N1012" s="5"/>
+    </row>
+    <row r="1013">
+      <c r="M1013" s="2"/>
+      <c r="N1013" s="5"/>
+    </row>
+    <row r="1014">
+      <c r="M1014" s="2"/>
+      <c r="N1014" s="5"/>
+    </row>
+    <row r="1015">
+      <c r="M1015" s="2"/>
+      <c r="N1015" s="5"/>
+    </row>
+    <row r="1016">
+      <c r="M1016" s="2"/>
+      <c r="N1016" s="5"/>
+    </row>
+    <row r="1017">
+      <c r="M1017" s="2"/>
+      <c r="N1017" s="5"/>
+    </row>
+    <row r="1018">
+      <c r="M1018" s="2"/>
+      <c r="N1018" s="5"/>
+    </row>
+    <row r="1019">
+      <c r="M1019" s="2"/>
+      <c r="N1019" s="5"/>
+    </row>
+    <row r="1020">
+      <c r="M1020" s="2"/>
+      <c r="N1020" s="5"/>
+    </row>
+    <row r="1021">
+      <c r="M1021" s="2"/>
+      <c r="N1021" s="5"/>
+    </row>
+    <row r="1022">
+      <c r="M1022" s="2"/>
+      <c r="N1022" s="5"/>
+    </row>
+    <row r="1023">
+      <c r="M1023" s="2"/>
+      <c r="N1023" s="5"/>
+    </row>
+    <row r="1024">
+      <c r="M1024" s="2"/>
+      <c r="N1024" s="5"/>
+    </row>
+    <row r="1025">
+      <c r="M1025" s="2"/>
+      <c r="N1025" s="5"/>
+    </row>
+    <row r="1026">
+      <c r="M1026" s="2"/>
+      <c r="N1026" s="5"/>
+    </row>
+    <row r="1027">
+      <c r="M1027" s="2"/>
+      <c r="N1027" s="5"/>
+    </row>
+    <row r="1028">
+      <c r="M1028" s="2"/>
+      <c r="N1028" s="5"/>
+    </row>
+    <row r="1029">
+      <c r="M1029" s="2"/>
+      <c r="N1029" s="5"/>
+    </row>
+    <row r="1030">
+      <c r="M1030" s="2"/>
+      <c r="N1030" s="5"/>
+    </row>
+    <row r="1031">
+      <c r="M1031" s="2"/>
+      <c r="N1031" s="5"/>
+    </row>
+    <row r="1032">
+      <c r="M1032" s="2"/>
+      <c r="N1032" s="5"/>
+    </row>
+    <row r="1033">
+      <c r="M1033" s="2"/>
+      <c r="N1033" s="5"/>
+    </row>
+    <row r="1034">
+      <c r="M1034" s="2"/>
+      <c r="N1034" s="5"/>
+    </row>
+    <row r="1035">
+      <c r="M1035" s="2"/>
+      <c r="N1035" s="5"/>
+    </row>
+    <row r="1036">
+      <c r="M1036" s="2"/>
+      <c r="N1036" s="5"/>
+    </row>
+    <row r="1037">
+      <c r="M1037" s="2"/>
+      <c r="N1037" s="5"/>
+    </row>
+    <row r="1038">
+      <c r="M1038" s="2"/>
+      <c r="N1038" s="5"/>
+    </row>
+    <row r="1039">
+      <c r="M1039" s="2"/>
+      <c r="N1039" s="5"/>
+    </row>
+    <row r="1040">
+      <c r="M1040" s="2"/>
+      <c r="N1040" s="5"/>
+    </row>
+    <row r="1041">
+      <c r="M1041" s="2"/>
+      <c r="N1041" s="5"/>
+    </row>
+    <row r="1042">
+      <c r="M1042" s="2"/>
+      <c r="N1042" s="5"/>
+    </row>
+    <row r="1043">
+      <c r="M1043" s="2"/>
+      <c r="N1043" s="5"/>
+    </row>
+    <row r="1044">
+      <c r="M1044" s="2"/>
+      <c r="N1044" s="5"/>
+    </row>
+    <row r="1045">
+      <c r="M1045" s="2"/>
+      <c r="N1045" s="5"/>
+    </row>
+    <row r="1046">
+      <c r="M1046" s="2"/>
+      <c r="N1046" s="5"/>
+    </row>
+    <row r="1047">
+      <c r="M1047" s="2"/>
+      <c r="N1047" s="5"/>
+    </row>
+    <row r="1048">
+      <c r="M1048" s="2"/>
+      <c r="N1048" s="5"/>
+    </row>
+    <row r="1049">
+      <c r="M1049" s="2"/>
+      <c r="N1049" s="5"/>
+    </row>
+    <row r="1050">
+      <c r="M1050" s="2"/>
+      <c r="N1050" s="5"/>
+    </row>
+    <row r="1051">
+      <c r="M1051" s="2"/>
+      <c r="N1051" s="5"/>
+    </row>
+    <row r="1052">
+      <c r="M1052" s="2"/>
+      <c r="N1052" s="5"/>
+    </row>
+    <row r="1053">
+      <c r="M1053" s="2"/>
+      <c r="N1053" s="5"/>
+    </row>
+    <row r="1054">
+      <c r="M1054" s="2"/>
+      <c r="N1054" s="5"/>
+    </row>
+    <row r="1055">
+      <c r="M1055" s="2"/>
+      <c r="N1055" s="5"/>
+    </row>
+    <row r="1056">
+      <c r="M1056" s="2"/>
+      <c r="N1056" s="5"/>
+    </row>
+    <row r="1057">
+      <c r="M1057" s="2"/>
+      <c r="N1057" s="5"/>
+    </row>
+    <row r="1058">
+      <c r="M1058" s="2"/>
+      <c r="N1058" s="5"/>
+    </row>
+    <row r="1059">
+      <c r="M1059" s="2"/>
+      <c r="N1059" s="5"/>
+    </row>
+    <row r="1060">
+      <c r="M1060" s="2"/>
+      <c r="N1060" s="5"/>
+    </row>
+    <row r="1061">
+      <c r="M1061" s="2"/>
+      <c r="N1061" s="5"/>
+    </row>
+    <row r="1062">
+      <c r="M1062" s="2"/>
+      <c r="N1062" s="5"/>
+    </row>
+    <row r="1063">
+      <c r="M1063" s="2"/>
+      <c r="N1063" s="5"/>
+    </row>
+    <row r="1064">
+      <c r="M1064" s="2"/>
+      <c r="N1064" s="5"/>
+    </row>
+    <row r="1065">
+      <c r="M1065" s="2"/>
+      <c r="N1065" s="5"/>
+    </row>
+    <row r="1066">
+      <c r="M1066" s="2"/>
+      <c r="N1066" s="5"/>
+    </row>
+    <row r="1067">
+      <c r="M1067" s="2"/>
+      <c r="N1067" s="5"/>
+    </row>
+    <row r="1068">
+      <c r="M1068" s="2"/>
+      <c r="N1068" s="5"/>
+    </row>
+    <row r="1069">
+      <c r="M1069" s="2"/>
+      <c r="N1069" s="5"/>
+    </row>
+    <row r="1070">
+      <c r="M1070" s="2"/>
+      <c r="N1070" s="5"/>
+    </row>
+    <row r="1071">
+      <c r="M1071" s="2"/>
+      <c r="N1071" s="5"/>
+    </row>
+    <row r="1072">
+      <c r="M1072" s="2"/>
+      <c r="N1072" s="5"/>
+    </row>
+    <row r="1073">
+      <c r="M1073" s="2"/>
+      <c r="N1073" s="5"/>
+    </row>
+    <row r="1074">
+      <c r="M1074" s="2"/>
+      <c r="N1074" s="5"/>
+    </row>
+    <row r="1075">
+      <c r="M1075" s="2"/>
+      <c r="N1075" s="5"/>
+    </row>
+    <row r="1076">
+      <c r="M1076" s="2"/>
+      <c r="N1076" s="5"/>
+    </row>
+    <row r="1077">
+      <c r="M1077" s="2"/>
+      <c r="N1077" s="5"/>
+    </row>
+    <row r="1078">
+      <c r="M1078" s="2"/>
+      <c r="N1078" s="5"/>
+    </row>
+    <row r="1079">
+      <c r="M1079" s="2"/>
+      <c r="N1079" s="5"/>
+    </row>
+    <row r="1080">
+      <c r="M1080" s="2"/>
+      <c r="N1080" s="5"/>
+    </row>
+    <row r="1081">
+      <c r="M1081" s="2"/>
+      <c r="N1081" s="5"/>
+    </row>
+    <row r="1082">
+      <c r="M1082" s="2"/>
+      <c r="N1082" s="5"/>
+    </row>
+    <row r="1083">
+      <c r="M1083" s="2"/>
+      <c r="N1083" s="5"/>
+    </row>
+    <row r="1084">
+      <c r="M1084" s="2"/>
+      <c r="N1084" s="5"/>
+    </row>
+    <row r="1085">
+      <c r="M1085" s="2"/>
+      <c r="N1085" s="5"/>
+    </row>
+    <row r="1086">
+      <c r="M1086" s="2"/>
+      <c r="N1086" s="5"/>
+    </row>
+    <row r="1087">
+      <c r="M1087" s="2"/>
+      <c r="N1087" s="5"/>
+    </row>
+    <row r="1088">
+      <c r="M1088" s="2"/>
+      <c r="N1088" s="5"/>
+    </row>
+    <row r="1089">
+      <c r="M1089" s="2"/>
+      <c r="N1089" s="5"/>
+    </row>
+    <row r="1090">
+      <c r="M1090" s="2"/>
+      <c r="N1090" s="5"/>
+    </row>
+    <row r="1091">
+      <c r="M1091" s="2"/>
+      <c r="N1091" s="5"/>
+    </row>
+    <row r="1092">
+      <c r="M1092" s="2"/>
+      <c r="N1092" s="5"/>
+    </row>
+    <row r="1093">
+      <c r="M1093" s="2"/>
+      <c r="N1093" s="5"/>
+    </row>
+    <row r="1094">
+      <c r="M1094" s="2"/>
+      <c r="N1094" s="5"/>
+    </row>
+    <row r="1095">
+      <c r="M1095" s="2"/>
+      <c r="N1095" s="5"/>
+    </row>
+    <row r="1096">
+      <c r="M1096" s="2"/>
+      <c r="N1096" s="5"/>
+    </row>
+    <row r="1097">
+      <c r="M1097" s="2"/>
+      <c r="N1097" s="5"/>
+    </row>
+    <row r="1098">
+      <c r="M1098" s="2"/>
+      <c r="N1098" s="5"/>
+    </row>
+    <row r="1099">
+      <c r="M1099" s="2"/>
+      <c r="N1099" s="5"/>
+    </row>
+    <row r="1100">
+      <c r="M1100" s="2"/>
+      <c r="N1100" s="5"/>
+    </row>
+    <row r="1101">
+      <c r="M1101" s="2"/>
+      <c r="N1101" s="5"/>
+    </row>
+    <row r="1102">
+      <c r="M1102" s="2"/>
+      <c r="N1102" s="5"/>
+    </row>
+    <row r="1103">
+      <c r="M1103" s="2"/>
+      <c r="N1103" s="5"/>
+    </row>
+    <row r="1104">
+      <c r="M1104" s="2"/>
+      <c r="N1104" s="5"/>
+    </row>
+    <row r="1105">
+      <c r="M1105" s="2"/>
+      <c r="N1105" s="5"/>
+    </row>
+    <row r="1106">
+      <c r="M1106" s="2"/>
+      <c r="N1106" s="5"/>
+    </row>
+    <row r="1107">
+      <c r="M1107" s="2"/>
+      <c r="N1107" s="5"/>
+    </row>
+    <row r="1108">
+      <c r="M1108" s="2"/>
+      <c r="N1108" s="5"/>
+    </row>
+    <row r="1109">
+      <c r="M1109" s="2"/>
+      <c r="N1109" s="5"/>
+    </row>
+    <row r="1110">
+      <c r="M1110" s="2"/>
+      <c r="N1110" s="5"/>
+    </row>
+    <row r="1111">
+      <c r="M1111" s="2"/>
+      <c r="N1111" s="5"/>
+    </row>
+    <row r="1112">
+      <c r="M1112" s="2"/>
+      <c r="N1112" s="5"/>
+    </row>
+    <row r="1113">
+      <c r="M1113" s="2"/>
+      <c r="N1113" s="5"/>
+    </row>
+    <row r="1114">
+      <c r="M1114" s="2"/>
+      <c r="N1114" s="5"/>
+    </row>
+    <row r="1115">
+      <c r="M1115" s="2"/>
+      <c r="N1115" s="5"/>
+    </row>
+    <row r="1116">
+      <c r="M1116" s="2"/>
+      <c r="N1116" s="5"/>
+    </row>
+    <row r="1117">
+      <c r="M1117" s="2"/>
+      <c r="N1117" s="5"/>
+    </row>
+    <row r="1118">
+      <c r="M1118" s="2"/>
+      <c r="N1118" s="5"/>
+    </row>
+    <row r="1119">
+      <c r="M1119" s="2"/>
+      <c r="N1119" s="5"/>
+    </row>
+    <row r="1120">
+      <c r="M1120" s="2"/>
+      <c r="N1120" s="5"/>
+    </row>
+    <row r="1121">
+      <c r="M1121" s="2"/>
+      <c r="N1121" s="5"/>
+    </row>
+    <row r="1122">
+      <c r="M1122" s="2"/>
+      <c r="N1122" s="5"/>
+    </row>
+    <row r="1123">
+      <c r="M1123" s="2"/>
+      <c r="N1123" s="5"/>
+    </row>
+    <row r="1124">
+      <c r="M1124" s="2"/>
+      <c r="N1124" s="5"/>
+    </row>
+    <row r="1125">
+      <c r="M1125" s="2"/>
+      <c r="N1125" s="5"/>
+    </row>
+    <row r="1126">
+      <c r="M1126" s="2"/>
+      <c r="N1126" s="5"/>
+    </row>
+    <row r="1127">
+      <c r="M1127" s="2"/>
+      <c r="N1127" s="5"/>
+    </row>
+    <row r="1128">
+      <c r="M1128" s="2"/>
+      <c r="N1128" s="5"/>
+    </row>
+    <row r="1129">
+      <c r="M1129" s="2"/>
+      <c r="N1129" s="5"/>
+    </row>
+    <row r="1130">
+      <c r="M1130" s="2"/>
+      <c r="N1130" s="5"/>
+    </row>
+    <row r="1131">
+      <c r="M1131" s="2"/>
+      <c r="N1131" s="5"/>
+    </row>
+    <row r="1132">
+      <c r="M1132" s="2"/>
+      <c r="N1132" s="5"/>
+    </row>
+    <row r="1133">
+      <c r="M1133" s="2"/>
+      <c r="N1133" s="5"/>
+    </row>
+    <row r="1134">
+      <c r="M1134" s="2"/>
+      <c r="N1134" s="5"/>
+    </row>
+    <row r="1135">
+      <c r="M1135" s="2"/>
+      <c r="N1135" s="5"/>
+    </row>
+    <row r="1136">
+      <c r="M1136" s="2"/>
+      <c r="N1136" s="5"/>
+    </row>
+    <row r="1137">
+      <c r="M1137" s="2"/>
+      <c r="N1137" s="5"/>
+    </row>
+    <row r="1138">
+      <c r="M1138" s="2"/>
+      <c r="N1138" s="5"/>
+    </row>
+    <row r="1139">
+      <c r="M1139" s="2"/>
+      <c r="N1139" s="5"/>
+    </row>
+    <row r="1140">
+      <c r="M1140" s="2"/>
+      <c r="N1140" s="5"/>
+    </row>
+    <row r="1141">
+      <c r="M1141" s="2"/>
+      <c r="N1141" s="5"/>
+    </row>
+    <row r="1142">
+      <c r="M1142" s="2"/>
+      <c r="N1142" s="5"/>
+    </row>
+    <row r="1143">
+      <c r="M1143" s="2"/>
+      <c r="N1143" s="5"/>
+    </row>
+    <row r="1144">
+      <c r="M1144" s="2"/>
+      <c r="N1144" s="5"/>
+    </row>
+    <row r="1145">
+      <c r="M1145" s="2"/>
+      <c r="N1145" s="5"/>
+    </row>
+    <row r="1146">
+      <c r="M1146" s="2"/>
+      <c r="N1146" s="5"/>
+    </row>
+    <row r="1147">
+      <c r="M1147" s="2"/>
+      <c r="N1147" s="5"/>
+    </row>
+    <row r="1148">
+      <c r="M1148" s="2"/>
+      <c r="N1148" s="5"/>
+    </row>
+    <row r="1149">
+      <c r="M1149" s="2"/>
+      <c r="N1149" s="5"/>
+    </row>
+    <row r="1150">
+      <c r="M1150" s="2"/>
+      <c r="N1150" s="5"/>
+    </row>
+    <row r="1151">
+      <c r="M1151" s="2"/>
+      <c r="N1151" s="5"/>
+    </row>
+    <row r="1152">
+      <c r="M1152" s="2"/>
+      <c r="N1152" s="5"/>
+    </row>
+    <row r="1153">
+      <c r="M1153" s="2"/>
+      <c r="N1153" s="5"/>
+    </row>
+    <row r="1154">
+      <c r="M1154" s="2"/>
+      <c r="N1154" s="5"/>
+    </row>
+    <row r="1155">
+      <c r="M1155" s="2"/>
+      <c r="N1155" s="5"/>
+    </row>
+    <row r="1156">
+      <c r="M1156" s="2"/>
+      <c r="N1156" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
